--- a/STABLE CODE/Jupyter/testfile.xlsx
+++ b/STABLE CODE/Jupyter/testfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF213C15-1E59-4BE8-A95D-4F25EAD2AC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7BE00-7E1D-4BA5-83FB-3F75F9DEB814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signode" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Order #</t>
   </si>
@@ -66,6 +66,45 @@
   </si>
   <si>
     <t>Shipped</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\single_pdfs_5.pdf</t>
+  </si>
+  <si>
+    <t>Rio Tinto Alcan</t>
+  </si>
+  <si>
+    <t>See Below</t>
+  </si>
+  <si>
+    <t>7177969-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7177969-00.pdf</t>
+  </si>
+  <si>
+    <t>Pneumatique Equipement&amp; Fournitures</t>
+  </si>
+  <si>
+    <t>Purolator</t>
+  </si>
+  <si>
+    <t>7181257-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7181257-00.pdf</t>
+  </si>
+  <si>
+    <t>Maritime Paper ProductsLimited</t>
+  </si>
+  <si>
+    <t>7181632-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7181632-00.pdf</t>
+  </si>
+  <si>
+    <t>Reprint</t>
   </si>
 </sst>
 </file>
@@ -607,20 +646,21 @@
   <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27.26953125" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" style="19" customWidth="1"/>
     <col min="5" max="5" width="28.81640625" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="166.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="8.7265625" style="6"/>
+    <col min="9" max="9" width="20.90625" style="6" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" style="6"/>
     <col min="14" max="14" width="15.26953125" style="6" customWidth="1"/>
     <col min="15" max="16384" width="8.7265625" style="6"/>
   </cols>
@@ -650,52 +690,123 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
-        <f t="shared" ref="A2:A6" si="0">HYPERLINK(G2, F2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="9" t="str">
+        <f t="shared" ref="A2:A18" si="0">HYPERLINK(G2, F2)</f>
+        <v>7177969-00</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12">
+        <v>44239.614600775465</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+      <c r="A3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
+        <v>7181632-00</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44239.614601875001</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
+        <v>7181632-00</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44239.614601875001</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
+        <v>7181257-00</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44239.614601504632</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -712,17 +823,17 @@
     </row>
     <row r="7" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
-        <f>HYPERLINK(G7, F7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
-        <f t="shared" ref="A2:A12" si="1">HYPERLINK(G8, F8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" s="10"/>
@@ -732,17 +843,17 @@
     </row>
     <row r="9" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" s="10"/>
@@ -752,7 +863,7 @@
     </row>
     <row r="11" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" s="10"/>
@@ -762,7 +873,7 @@
     </row>
     <row r="12" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" s="10"/>
@@ -771,1505 +882,2150 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="18"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="18"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="18"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="18"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9">
+        <f>HYPERLINK(G19, F19)</f>
+        <v>0</v>
+      </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="18"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9">
+        <f>HYPERLINK(G20, F20)</f>
+        <v>0</v>
+      </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="18"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9">
+        <f>HYPERLINK(G21, F21)</f>
+        <v>0</v>
+      </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="18"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9">
+        <f>HYPERLINK(G22, F22)</f>
+        <v>0</v>
+      </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="18"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
+      <c r="A23" s="9">
+        <f>HYPERLINK(G23, F23)</f>
+        <v>0</v>
+      </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="18"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9">
+        <f>HYPERLINK(G24, F24)</f>
+        <v>0</v>
+      </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="18"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9">
+        <f>HYPERLINK(G25, F25)</f>
+        <v>0</v>
+      </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9">
+        <f>HYPERLINK(G26, F26)</f>
+        <v>0</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="18"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
+      <c r="A27" s="9">
+        <f>HYPERLINK(G27, F27)</f>
+        <v>0</v>
+      </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="18"/>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9">
+        <f>HYPERLINK(G28, F28)</f>
+        <v>0</v>
+      </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="18"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9">
+        <f>HYPERLINK(G29, F29)</f>
+        <v>0</v>
+      </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="18"/>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
+      <c r="A30" s="9">
+        <f>HYPERLINK(G30, F30)</f>
+        <v>0</v>
+      </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="18"/>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="9"/>
+      <c r="A31" s="9">
+        <f>HYPERLINK(G31, F31)</f>
+        <v>0</v>
+      </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="18"/>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9">
+        <f>HYPERLINK(G32, F32)</f>
+        <v>0</v>
+      </c>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="18"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9">
+        <f>HYPERLINK(G33, F33)</f>
+        <v>0</v>
+      </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="18"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="9"/>
+      <c r="A34" s="9">
+        <f>HYPERLINK(G34, F34)</f>
+        <v>0</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="18"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9">
+        <f>HYPERLINK(G35, F35)</f>
+        <v>0</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="18"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9">
+        <f>HYPERLINK(G36, F36)</f>
+        <v>0</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="18"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="9"/>
+      <c r="A37" s="9">
+        <f>HYPERLINK(G37, F37)</f>
+        <v>0</v>
+      </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="9"/>
+      <c r="A38" s="9">
+        <f>HYPERLINK(G38, F38)</f>
+        <v>0</v>
+      </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="18"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="9"/>
+      <c r="A39" s="9">
+        <f>HYPERLINK(G39, F39)</f>
+        <v>0</v>
+      </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="18"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="9"/>
+      <c r="A40" s="9">
+        <f>HYPERLINK(G40, F40)</f>
+        <v>0</v>
+      </c>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="18"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="9"/>
+      <c r="A41" s="9">
+        <f>HYPERLINK(G41, F41)</f>
+        <v>0</v>
+      </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="18"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="9"/>
+      <c r="A42" s="9">
+        <f>HYPERLINK(G42, F42)</f>
+        <v>0</v>
+      </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="18"/>
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="9"/>
+      <c r="A43" s="9">
+        <f>HYPERLINK(G43, F43)</f>
+        <v>0</v>
+      </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="18"/>
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="9"/>
+      <c r="A44" s="9">
+        <f>HYPERLINK(G44, F44)</f>
+        <v>0</v>
+      </c>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="18"/>
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9">
+        <f>HYPERLINK(G45, F45)</f>
+        <v>0</v>
+      </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="18"/>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="9"/>
+      <c r="A46" s="9">
+        <f>HYPERLINK(G46, F46)</f>
+        <v>0</v>
+      </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="9"/>
+      <c r="A47" s="9">
+        <f>HYPERLINK(G47, F47)</f>
+        <v>0</v>
+      </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="9"/>
+      <c r="A48" s="9">
+        <f>HYPERLINK(G48, F48)</f>
+        <v>0</v>
+      </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="9"/>
+      <c r="A49" s="9">
+        <f>HYPERLINK(G49, F49)</f>
+        <v>0</v>
+      </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="9"/>
+      <c r="A50" s="9">
+        <f>HYPERLINK(G50, F50)</f>
+        <v>0</v>
+      </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="18"/>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9">
+        <f>HYPERLINK(G51, F51)</f>
+        <v>0</v>
+      </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="18"/>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="9"/>
+      <c r="A52" s="9">
+        <f>HYPERLINK(G52, F52)</f>
+        <v>0</v>
+      </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
       <c r="D52" s="18"/>
       <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9">
+        <f>HYPERLINK(G53, F53)</f>
+        <v>0</v>
+      </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="18"/>
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9">
+        <f>HYPERLINK(G54, F54)</f>
+        <v>0</v>
+      </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="18"/>
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="9"/>
+      <c r="A55" s="9">
+        <f>HYPERLINK(G55, F55)</f>
+        <v>0</v>
+      </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
       <c r="D55" s="18"/>
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="9"/>
+      <c r="A56" s="9">
+        <f>HYPERLINK(G56, F56)</f>
+        <v>0</v>
+      </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="18"/>
       <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="9"/>
+      <c r="A57" s="9">
+        <f>HYPERLINK(G57, F57)</f>
+        <v>0</v>
+      </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
       <c r="D57" s="18"/>
       <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="9"/>
+      <c r="A58" s="9">
+        <f>HYPERLINK(G58, F58)</f>
+        <v>0</v>
+      </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="18"/>
       <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="9"/>
+      <c r="A59" s="9">
+        <f>HYPERLINK(G59, F59)</f>
+        <v>0</v>
+      </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
       <c r="D59" s="18"/>
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="9"/>
+      <c r="A60" s="9">
+        <f>HYPERLINK(G60, F60)</f>
+        <v>0</v>
+      </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="18"/>
       <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9">
+        <f>HYPERLINK(G61, F61)</f>
+        <v>0</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9">
+        <f>HYPERLINK(G62, F62)</f>
+        <v>0</v>
+      </c>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="18"/>
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9">
+        <f>HYPERLINK(G63, F63)</f>
+        <v>0</v>
+      </c>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="18"/>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="9"/>
+      <c r="A64" s="9">
+        <f>HYPERLINK(G64, F64)</f>
+        <v>0</v>
+      </c>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="18"/>
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="9"/>
+      <c r="A65" s="9">
+        <f>HYPERLINK(G65, F65)</f>
+        <v>0</v>
+      </c>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="18"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="9"/>
+      <c r="A66" s="9">
+        <f>HYPERLINK(G66, F66)</f>
+        <v>0</v>
+      </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
       <c r="D66" s="18"/>
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="9"/>
+      <c r="A67" s="9">
+        <f>HYPERLINK(G67, F67)</f>
+        <v>0</v>
+      </c>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="18"/>
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="9"/>
+      <c r="A68" s="9">
+        <f>HYPERLINK(G68, F68)</f>
+        <v>0</v>
+      </c>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="18"/>
       <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="9"/>
+      <c r="A69" s="9">
+        <f>HYPERLINK(G69, F69)</f>
+        <v>0</v>
+      </c>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="18"/>
       <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="9"/>
+      <c r="A70" s="9">
+        <f>HYPERLINK(G70, F70)</f>
+        <v>0</v>
+      </c>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
       <c r="D70" s="18"/>
       <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="9"/>
+      <c r="A71" s="9">
+        <f>HYPERLINK(G71, F71)</f>
+        <v>0</v>
+      </c>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="18"/>
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="9"/>
+      <c r="A72" s="9">
+        <f>HYPERLINK(G72, F72)</f>
+        <v>0</v>
+      </c>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
       <c r="D72" s="18"/>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="9"/>
+      <c r="A73" s="9">
+        <f>HYPERLINK(G73, F73)</f>
+        <v>0</v>
+      </c>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="18"/>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="9"/>
+      <c r="A74" s="9">
+        <f>HYPERLINK(G74, F74)</f>
+        <v>0</v>
+      </c>
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="18"/>
       <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="9"/>
+      <c r="A75" s="9">
+        <f>HYPERLINK(G75, F75)</f>
+        <v>0</v>
+      </c>
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="18"/>
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="9"/>
+      <c r="A76" s="9">
+        <f>HYPERLINK(G76, F76)</f>
+        <v>0</v>
+      </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="18"/>
       <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="9"/>
+      <c r="A77" s="9">
+        <f>HYPERLINK(G77, F77)</f>
+        <v>0</v>
+      </c>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="18"/>
       <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="9"/>
+      <c r="A78" s="9">
+        <f>HYPERLINK(G78, F78)</f>
+        <v>0</v>
+      </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
       <c r="D78" s="18"/>
       <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="9"/>
+      <c r="A79" s="9">
+        <f>HYPERLINK(G79, F79)</f>
+        <v>0</v>
+      </c>
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
       <c r="D79" s="18"/>
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="9"/>
+      <c r="A80" s="9">
+        <f>HYPERLINK(G80, F80)</f>
+        <v>0</v>
+      </c>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="18"/>
       <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9">
+        <f>HYPERLINK(G81, F81)</f>
+        <v>0</v>
+      </c>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
       <c r="D81" s="18"/>
       <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9">
+        <f>HYPERLINK(G82, F82)</f>
+        <v>0</v>
+      </c>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="18"/>
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="9"/>
+      <c r="A83" s="9">
+        <f>HYPERLINK(G83, F83)</f>
+        <v>0</v>
+      </c>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="18"/>
       <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="9"/>
+      <c r="A84" s="9">
+        <f>HYPERLINK(G84, F84)</f>
+        <v>0</v>
+      </c>
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
       <c r="D84" s="18"/>
       <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="9"/>
+      <c r="A85" s="9">
+        <f>HYPERLINK(G85, F85)</f>
+        <v>0</v>
+      </c>
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="18"/>
       <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="9"/>
+      <c r="A86" s="9">
+        <f>HYPERLINK(G86, F86)</f>
+        <v>0</v>
+      </c>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
       <c r="D86" s="18"/>
       <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="9"/>
+      <c r="A87" s="9">
+        <f>HYPERLINK(G87, F87)</f>
+        <v>0</v>
+      </c>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
       <c r="D87" s="18"/>
       <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="9"/>
+      <c r="A88" s="9">
+        <f>HYPERLINK(G88, F88)</f>
+        <v>0</v>
+      </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
       <c r="D88" s="18"/>
       <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="9"/>
+      <c r="A89" s="9">
+        <f>HYPERLINK(G89, F89)</f>
+        <v>0</v>
+      </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
       <c r="D89" s="18"/>
       <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="9"/>
+      <c r="A90" s="9">
+        <f>HYPERLINK(G90, F90)</f>
+        <v>0</v>
+      </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
       <c r="D90" s="18"/>
       <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="9"/>
+      <c r="A91" s="9">
+        <f>HYPERLINK(G91, F91)</f>
+        <v>0</v>
+      </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="18"/>
       <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="9"/>
+      <c r="A92" s="9">
+        <f>HYPERLINK(G92, F92)</f>
+        <v>0</v>
+      </c>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="18"/>
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="9"/>
+      <c r="A93" s="9">
+        <f>HYPERLINK(G93, F93)</f>
+        <v>0</v>
+      </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="18"/>
       <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="9"/>
+      <c r="A94" s="9">
+        <f>HYPERLINK(G94, F94)</f>
+        <v>0</v>
+      </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94" s="18"/>
       <c r="E94" s="12"/>
     </row>
     <row r="95" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="9"/>
+      <c r="A95" s="9">
+        <f>HYPERLINK(G95, F95)</f>
+        <v>0</v>
+      </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
       <c r="D95" s="18"/>
       <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="9"/>
+      <c r="A96" s="9">
+        <f>HYPERLINK(G96, F96)</f>
+        <v>0</v>
+      </c>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
       <c r="D96" s="18"/>
       <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="9"/>
+      <c r="A97" s="9">
+        <f>HYPERLINK(G97, F97)</f>
+        <v>0</v>
+      </c>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" s="18"/>
       <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="9"/>
+      <c r="A98" s="9">
+        <f>HYPERLINK(G98, F98)</f>
+        <v>0</v>
+      </c>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
       <c r="D98" s="18"/>
       <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="9"/>
+      <c r="A99" s="9">
+        <f>HYPERLINK(G99, F99)</f>
+        <v>0</v>
+      </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
       <c r="D99" s="18"/>
       <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="9"/>
+      <c r="A100" s="9">
+        <f>HYPERLINK(G100, F100)</f>
+        <v>0</v>
+      </c>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
       <c r="D100" s="18"/>
       <c r="E100" s="12"/>
     </row>
     <row r="101" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="9"/>
+      <c r="A101" s="9">
+        <f>HYPERLINK(G101, F101)</f>
+        <v>0</v>
+      </c>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="18"/>
       <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="9"/>
+      <c r="A102" s="9">
+        <f>HYPERLINK(G102, F102)</f>
+        <v>0</v>
+      </c>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
       <c r="D102" s="18"/>
       <c r="E102" s="12"/>
     </row>
     <row r="103" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="9"/>
+      <c r="A103" s="9">
+        <f>HYPERLINK(G103, F103)</f>
+        <v>0</v>
+      </c>
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
       <c r="D103" s="18"/>
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="9"/>
+      <c r="A104" s="9">
+        <f>HYPERLINK(G104, F104)</f>
+        <v>0</v>
+      </c>
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
       <c r="D104" s="18"/>
       <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="9"/>
+      <c r="A105" s="9">
+        <f>HYPERLINK(G105, F105)</f>
+        <v>0</v>
+      </c>
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
       <c r="D105" s="18"/>
       <c r="E105" s="12"/>
     </row>
     <row r="106" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="9"/>
+      <c r="A106" s="9">
+        <f>HYPERLINK(G106, F106)</f>
+        <v>0</v>
+      </c>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
       <c r="D106" s="18"/>
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="9"/>
+      <c r="A107" s="9">
+        <f>HYPERLINK(G107, F107)</f>
+        <v>0</v>
+      </c>
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
       <c r="D107" s="18"/>
       <c r="E107" s="12"/>
     </row>
     <row r="108" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="9"/>
+      <c r="A108" s="9">
+        <f>HYPERLINK(G108, F108)</f>
+        <v>0</v>
+      </c>
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
       <c r="D108" s="18"/>
       <c r="E108" s="12"/>
     </row>
     <row r="109" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="9"/>
+      <c r="A109" s="9">
+        <f>HYPERLINK(G109, F109)</f>
+        <v>0</v>
+      </c>
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
       <c r="D109" s="18"/>
       <c r="E109" s="12"/>
     </row>
     <row r="110" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="9"/>
+      <c r="A110" s="9">
+        <f>HYPERLINK(G110, F110)</f>
+        <v>0</v>
+      </c>
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="18"/>
       <c r="E110" s="12"/>
     </row>
     <row r="111" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="9"/>
+      <c r="A111" s="9">
+        <f>HYPERLINK(G111, F111)</f>
+        <v>0</v>
+      </c>
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="18"/>
       <c r="E111" s="12"/>
     </row>
     <row r="112" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="9"/>
+      <c r="A112" s="9">
+        <f>HYPERLINK(G112, F112)</f>
+        <v>0</v>
+      </c>
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
       <c r="D112" s="18"/>
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="9"/>
+      <c r="A113" s="9">
+        <f>HYPERLINK(G113, F113)</f>
+        <v>0</v>
+      </c>
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="18"/>
       <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="9"/>
+      <c r="A114" s="9">
+        <f>HYPERLINK(G114, F114)</f>
+        <v>0</v>
+      </c>
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
       <c r="D114" s="18"/>
       <c r="E114" s="12"/>
     </row>
     <row r="115" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="9"/>
+      <c r="A115" s="9">
+        <f>HYPERLINK(G115, F115)</f>
+        <v>0</v>
+      </c>
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
       <c r="D115" s="18"/>
       <c r="E115" s="12"/>
     </row>
     <row r="116" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="9"/>
+      <c r="A116" s="9">
+        <f>HYPERLINK(G116, F116)</f>
+        <v>0</v>
+      </c>
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="18"/>
       <c r="E116" s="12"/>
     </row>
     <row r="117" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="9"/>
+      <c r="A117" s="9">
+        <f>HYPERLINK(G117, F117)</f>
+        <v>0</v>
+      </c>
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="18"/>
       <c r="E117" s="12"/>
     </row>
     <row r="118" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="9"/>
+      <c r="A118" s="9">
+        <f>HYPERLINK(G118, F118)</f>
+        <v>0</v>
+      </c>
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="18"/>
       <c r="E118" s="12"/>
     </row>
     <row r="119" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="9"/>
+      <c r="A119" s="9">
+        <f>HYPERLINK(G119, F119)</f>
+        <v>0</v>
+      </c>
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
       <c r="D119" s="18"/>
       <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="9"/>
+      <c r="A120" s="9">
+        <f>HYPERLINK(G120, F120)</f>
+        <v>0</v>
+      </c>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="18"/>
       <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="9"/>
+      <c r="A121" s="9">
+        <f>HYPERLINK(G121, F121)</f>
+        <v>0</v>
+      </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
       <c r="D121" s="18"/>
       <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="9"/>
+      <c r="A122" s="9">
+        <f>HYPERLINK(G122, F122)</f>
+        <v>0</v>
+      </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
       <c r="D122" s="18"/>
       <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="9"/>
+      <c r="A123" s="9">
+        <f>HYPERLINK(G123, F123)</f>
+        <v>0</v>
+      </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="18"/>
       <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="9"/>
+      <c r="A124" s="9">
+        <f>HYPERLINK(G124, F124)</f>
+        <v>0</v>
+      </c>
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
       <c r="D124" s="18"/>
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="9"/>
+      <c r="A125" s="9">
+        <f>HYPERLINK(G125, F125)</f>
+        <v>0</v>
+      </c>
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
       <c r="D125" s="18"/>
       <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="9"/>
+      <c r="A126" s="9">
+        <f>HYPERLINK(G126, F126)</f>
+        <v>0</v>
+      </c>
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="18"/>
       <c r="E126" s="12"/>
     </row>
     <row r="127" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="9"/>
+      <c r="A127" s="9">
+        <f>HYPERLINK(G127, F127)</f>
+        <v>0</v>
+      </c>
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
       <c r="D127" s="18"/>
       <c r="E127" s="12"/>
     </row>
     <row r="128" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="9"/>
+      <c r="A128" s="9">
+        <f>HYPERLINK(G128, F128)</f>
+        <v>0</v>
+      </c>
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
       <c r="D128" s="18"/>
       <c r="E128" s="12"/>
     </row>
     <row r="129" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="9"/>
+      <c r="A129" s="9">
+        <f>HYPERLINK(G129, F129)</f>
+        <v>0</v>
+      </c>
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" s="18"/>
       <c r="E129" s="12"/>
     </row>
     <row r="130" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="9"/>
+      <c r="A130" s="9">
+        <f>HYPERLINK(G130, F130)</f>
+        <v>0</v>
+      </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" s="18"/>
       <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="9"/>
+      <c r="A131" s="9">
+        <f>HYPERLINK(G131, F131)</f>
+        <v>0</v>
+      </c>
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="18"/>
       <c r="E131" s="12"/>
     </row>
     <row r="132" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="9"/>
+      <c r="A132" s="9">
+        <f>HYPERLINK(G132, F132)</f>
+        <v>0</v>
+      </c>
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="18"/>
       <c r="E132" s="12"/>
     </row>
     <row r="133" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="9"/>
+      <c r="A133" s="9">
+        <f>HYPERLINK(G133, F133)</f>
+        <v>0</v>
+      </c>
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="18"/>
       <c r="E133" s="12"/>
     </row>
     <row r="134" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="9"/>
+      <c r="A134" s="9">
+        <f>HYPERLINK(G134, F134)</f>
+        <v>0</v>
+      </c>
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
       <c r="D134" s="18"/>
       <c r="E134" s="12"/>
     </row>
     <row r="135" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="9"/>
+      <c r="A135" s="9">
+        <f>HYPERLINK(G135, F135)</f>
+        <v>0</v>
+      </c>
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="9"/>
+      <c r="A136" s="9">
+        <f>HYPERLINK(G136, F136)</f>
+        <v>0</v>
+      </c>
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
       <c r="D136" s="18"/>
       <c r="E136" s="12"/>
     </row>
     <row r="137" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="9"/>
+      <c r="A137" s="9">
+        <f>HYPERLINK(G137, F137)</f>
+        <v>0</v>
+      </c>
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
       <c r="D137" s="18"/>
       <c r="E137" s="12"/>
     </row>
     <row r="138" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="9"/>
+      <c r="A138" s="9">
+        <f>HYPERLINK(G138, F138)</f>
+        <v>0</v>
+      </c>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="18"/>
       <c r="E138" s="12"/>
     </row>
     <row r="139" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="9"/>
+      <c r="A139" s="9">
+        <f>HYPERLINK(G139, F139)</f>
+        <v>0</v>
+      </c>
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
       <c r="D139" s="18"/>
       <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="9"/>
+      <c r="A140" s="9">
+        <f>HYPERLINK(G140, F140)</f>
+        <v>0</v>
+      </c>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
       <c r="D140" s="18"/>
       <c r="E140" s="12"/>
     </row>
     <row r="141" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="9"/>
+      <c r="A141" s="9">
+        <f>HYPERLINK(G141, F141)</f>
+        <v>0</v>
+      </c>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12"/>
     </row>
     <row r="142" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="9"/>
+      <c r="A142" s="9">
+        <f>HYPERLINK(G142, F142)</f>
+        <v>0</v>
+      </c>
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
       <c r="D142" s="18"/>
       <c r="E142" s="12"/>
     </row>
     <row r="143" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="9"/>
+      <c r="A143" s="9">
+        <f>HYPERLINK(G143, F143)</f>
+        <v>0</v>
+      </c>
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
       <c r="D143" s="18"/>
       <c r="E143" s="12"/>
     </row>
     <row r="144" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="9"/>
+      <c r="A144" s="9">
+        <f>HYPERLINK(G144, F144)</f>
+        <v>0</v>
+      </c>
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
       <c r="D144" s="18"/>
       <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="9"/>
+      <c r="A145" s="9">
+        <f>HYPERLINK(G145, F145)</f>
+        <v>0</v>
+      </c>
       <c r="B145" s="10"/>
       <c r="C145" s="11"/>
       <c r="D145" s="18"/>
       <c r="E145" s="12"/>
     </row>
     <row r="146" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="9"/>
+      <c r="A146" s="9">
+        <f>HYPERLINK(G146, F146)</f>
+        <v>0</v>
+      </c>
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
       <c r="D146" s="18"/>
       <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A147" s="9"/>
+      <c r="A147" s="9">
+        <f>HYPERLINK(G147, F147)</f>
+        <v>0</v>
+      </c>
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
       <c r="D147" s="18"/>
       <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="9"/>
+      <c r="A148" s="9">
+        <f>HYPERLINK(G148, F148)</f>
+        <v>0</v>
+      </c>
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
       <c r="D148" s="18"/>
       <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="9"/>
+      <c r="A149" s="9">
+        <f>HYPERLINK(G149, F149)</f>
+        <v>0</v>
+      </c>
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
       <c r="D149" s="18"/>
       <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="9"/>
+      <c r="A150" s="9">
+        <f>HYPERLINK(G150, F150)</f>
+        <v>0</v>
+      </c>
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
       <c r="D150" s="18"/>
       <c r="E150" s="12"/>
     </row>
     <row r="151" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="9"/>
+      <c r="A151" s="9">
+        <f>HYPERLINK(G151, F151)</f>
+        <v>0</v>
+      </c>
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
       <c r="D151" s="18"/>
       <c r="E151" s="12"/>
     </row>
     <row r="152" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="9"/>
+      <c r="A152" s="9">
+        <f>HYPERLINK(G152, F152)</f>
+        <v>0</v>
+      </c>
       <c r="B152" s="10"/>
       <c r="C152" s="11"/>
       <c r="D152" s="18"/>
       <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="9"/>
+      <c r="A153" s="9">
+        <f>HYPERLINK(G153, F153)</f>
+        <v>0</v>
+      </c>
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
       <c r="D153" s="18"/>
       <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="9"/>
+      <c r="A154" s="9">
+        <f>HYPERLINK(G154, F154)</f>
+        <v>0</v>
+      </c>
       <c r="B154" s="10"/>
       <c r="C154" s="11"/>
       <c r="D154" s="18"/>
       <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="9"/>
+      <c r="A155" s="9">
+        <f>HYPERLINK(G155, F155)</f>
+        <v>0</v>
+      </c>
       <c r="B155" s="10"/>
       <c r="C155" s="11"/>
       <c r="D155" s="18"/>
       <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="9"/>
+      <c r="A156" s="9">
+        <f>HYPERLINK(G156, F156)</f>
+        <v>0</v>
+      </c>
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
       <c r="D156" s="18"/>
       <c r="E156" s="12"/>
     </row>
     <row r="157" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="9"/>
+      <c r="A157" s="9">
+        <f>HYPERLINK(G157, F157)</f>
+        <v>0</v>
+      </c>
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
       <c r="D157" s="18"/>
       <c r="E157" s="12"/>
     </row>
     <row r="158" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="9"/>
+      <c r="A158" s="9">
+        <f>HYPERLINK(G158, F158)</f>
+        <v>0</v>
+      </c>
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="9"/>
+      <c r="A159" s="9">
+        <f>HYPERLINK(G159, F159)</f>
+        <v>0</v>
+      </c>
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="9"/>
+      <c r="A160" s="9">
+        <f>HYPERLINK(G160, F160)</f>
+        <v>0</v>
+      </c>
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="9"/>
+      <c r="A161" s="9">
+        <f>HYPERLINK(G161, F161)</f>
+        <v>0</v>
+      </c>
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="9"/>
+      <c r="A162" s="9">
+        <f>HYPERLINK(G162, F162)</f>
+        <v>0</v>
+      </c>
       <c r="B162" s="10"/>
       <c r="C162" s="11"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="9"/>
+      <c r="A163" s="9">
+        <f>HYPERLINK(G163, F163)</f>
+        <v>0</v>
+      </c>
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="9"/>
+      <c r="A164" s="9">
+        <f>HYPERLINK(G164, F164)</f>
+        <v>0</v>
+      </c>
       <c r="B164" s="10"/>
       <c r="C164" s="11"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="9"/>
+      <c r="A165" s="9">
+        <f>HYPERLINK(G165, F165)</f>
+        <v>0</v>
+      </c>
       <c r="B165" s="10"/>
       <c r="C165" s="11"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A166" s="9"/>
+      <c r="A166" s="9">
+        <f>HYPERLINK(G166, F166)</f>
+        <v>0</v>
+      </c>
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12"/>
     </row>
     <row r="167" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A167" s="9"/>
+      <c r="A167" s="9">
+        <f>HYPERLINK(G167, F167)</f>
+        <v>0</v>
+      </c>
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="9"/>
+      <c r="A168" s="9">
+        <f>HYPERLINK(G168, F168)</f>
+        <v>0</v>
+      </c>
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12"/>
     </row>
     <row r="169" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A169" s="9"/>
+      <c r="A169" s="9">
+        <f>HYPERLINK(G169, F169)</f>
+        <v>0</v>
+      </c>
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A170" s="9"/>
+      <c r="A170" s="9">
+        <f>HYPERLINK(G170, F170)</f>
+        <v>0</v>
+      </c>
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A171" s="9"/>
+      <c r="A171" s="9">
+        <f>HYPERLINK(G171, F171)</f>
+        <v>0</v>
+      </c>
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12"/>
     </row>
     <row r="172" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="9"/>
+      <c r="A172" s="9">
+        <f>HYPERLINK(G172, F172)</f>
+        <v>0</v>
+      </c>
       <c r="B172" s="10"/>
       <c r="C172" s="11"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A173" s="9"/>
+      <c r="A173" s="9">
+        <f>HYPERLINK(G173, F173)</f>
+        <v>0</v>
+      </c>
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A174" s="9"/>
+      <c r="A174" s="9">
+        <f>HYPERLINK(G174, F174)</f>
+        <v>0</v>
+      </c>
       <c r="B174" s="10"/>
       <c r="C174" s="11"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12"/>
     </row>
     <row r="175" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A175" s="9"/>
+      <c r="A175" s="9">
+        <f>HYPERLINK(G175, F175)</f>
+        <v>0</v>
+      </c>
       <c r="B175" s="10"/>
       <c r="C175" s="11"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12"/>
     </row>
     <row r="176" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="9"/>
+      <c r="A176" s="9">
+        <f>HYPERLINK(G176, F176)</f>
+        <v>0</v>
+      </c>
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
       <c r="D176" s="18"/>
       <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A177" s="9"/>
+      <c r="A177" s="9">
+        <f>HYPERLINK(G177, F177)</f>
+        <v>0</v>
+      </c>
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
       <c r="D177" s="18"/>
       <c r="E177" s="12"/>
     </row>
     <row r="178" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="9"/>
+      <c r="A178" s="9">
+        <f>HYPERLINK(G178, F178)</f>
+        <v>0</v>
+      </c>
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
       <c r="D178" s="18"/>
       <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="9"/>
+      <c r="A179" s="9">
+        <f>HYPERLINK(G179, F179)</f>
+        <v>0</v>
+      </c>
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
       <c r="D179" s="18"/>
       <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="9"/>
+      <c r="A180" s="9">
+        <f>HYPERLINK(G180, F180)</f>
+        <v>0</v>
+      </c>
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
       <c r="D180" s="18"/>
       <c r="E180" s="12"/>
     </row>
     <row r="181" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="9"/>
+      <c r="A181" s="9">
+        <f>HYPERLINK(G181, F181)</f>
+        <v>0</v>
+      </c>
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
       <c r="D181" s="18"/>
       <c r="E181" s="12"/>
     </row>
     <row r="182" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="9"/>
+      <c r="A182" s="9">
+        <f>HYPERLINK(G182, F182)</f>
+        <v>0</v>
+      </c>
       <c r="B182" s="10"/>
       <c r="C182" s="11"/>
       <c r="D182" s="18"/>
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="9"/>
+      <c r="A183" s="9">
+        <f>HYPERLINK(G183, F183)</f>
+        <v>0</v>
+      </c>
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
       <c r="D183" s="18"/>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="9"/>
+      <c r="A184" s="9">
+        <f>HYPERLINK(G184, F184)</f>
+        <v>0</v>
+      </c>
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
       <c r="D184" s="18"/>
       <c r="E184" s="12"/>
     </row>
     <row r="185" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="9"/>
+      <c r="A185" s="9">
+        <f>HYPERLINK(G185, F185)</f>
+        <v>0</v>
+      </c>
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
       <c r="D185" s="18"/>
       <c r="E185" s="12"/>
     </row>
     <row r="186" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="9"/>
+      <c r="A186" s="9">
+        <f>HYPERLINK(G186, F186)</f>
+        <v>0</v>
+      </c>
       <c r="B186" s="10"/>
       <c r="C186" s="11"/>
       <c r="D186" s="18"/>
       <c r="E186" s="12"/>
     </row>
     <row r="187" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="9"/>
+      <c r="A187" s="9">
+        <f>HYPERLINK(G187, F187)</f>
+        <v>0</v>
+      </c>
       <c r="B187" s="10"/>
       <c r="C187" s="11"/>
       <c r="D187" s="18"/>
       <c r="E187" s="12"/>
     </row>
     <row r="188" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A188" s="9"/>
+      <c r="A188" s="9">
+        <f>HYPERLINK(G188, F188)</f>
+        <v>0</v>
+      </c>
       <c r="B188" s="10"/>
       <c r="C188" s="11"/>
       <c r="D188" s="18"/>
       <c r="E188" s="12"/>
     </row>
     <row r="189" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="9"/>
+      <c r="A189" s="9">
+        <f>HYPERLINK(G189, F189)</f>
+        <v>0</v>
+      </c>
       <c r="B189" s="10"/>
       <c r="C189" s="11"/>
       <c r="D189" s="18"/>
       <c r="E189" s="12"/>
     </row>
     <row r="190" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A190" s="9"/>
+      <c r="A190" s="9">
+        <f>HYPERLINK(G190, F190)</f>
+        <v>0</v>
+      </c>
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
       <c r="D190" s="18"/>
       <c r="E190" s="12"/>
     </row>
     <row r="191" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="9"/>
+      <c r="A191" s="9">
+        <f>HYPERLINK(G191, F191)</f>
+        <v>0</v>
+      </c>
       <c r="B191" s="10"/>
       <c r="C191" s="11"/>
       <c r="D191" s="18"/>
       <c r="E191" s="12"/>
     </row>
     <row r="192" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A192" s="9"/>
+      <c r="A192" s="9">
+        <f>HYPERLINK(G192, F192)</f>
+        <v>0</v>
+      </c>
       <c r="B192" s="10"/>
       <c r="C192" s="11"/>
       <c r="D192" s="18"/>
       <c r="E192" s="12"/>
     </row>
     <row r="193" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="9"/>
+      <c r="A193" s="9">
+        <f>HYPERLINK(G193, F193)</f>
+        <v>0</v>
+      </c>
       <c r="B193" s="10"/>
       <c r="C193" s="11"/>
       <c r="D193" s="18"/>
       <c r="E193" s="12"/>
     </row>
     <row r="194" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="9"/>
+      <c r="A194" s="9">
+        <f>HYPERLINK(G194, F194)</f>
+        <v>0</v>
+      </c>
       <c r="B194" s="10"/>
       <c r="C194" s="11"/>
       <c r="D194" s="18"/>
       <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="9"/>
+      <c r="A195" s="9">
+        <f>HYPERLINK(G195, F195)</f>
+        <v>0</v>
+      </c>
       <c r="B195" s="10"/>
       <c r="C195" s="11"/>
       <c r="D195" s="18"/>
       <c r="E195" s="12"/>
     </row>
     <row r="196" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="9"/>
+      <c r="A196" s="9">
+        <f>HYPERLINK(G196, F196)</f>
+        <v>0</v>
+      </c>
       <c r="B196" s="10"/>
       <c r="C196" s="11"/>
       <c r="D196" s="18"/>
       <c r="E196" s="12"/>
     </row>
     <row r="197" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A197" s="9"/>
+      <c r="A197" s="9">
+        <f>HYPERLINK(G197, F197)</f>
+        <v>0</v>
+      </c>
       <c r="B197" s="10"/>
       <c r="C197" s="11"/>
       <c r="D197" s="18"/>
       <c r="E197" s="12"/>
     </row>
     <row r="198" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="9"/>
+      <c r="A198" s="9">
+        <f>HYPERLINK(G198, F198)</f>
+        <v>0</v>
+      </c>
       <c r="B198" s="10"/>
       <c r="C198" s="11"/>
       <c r="D198" s="18"/>
       <c r="E198" s="12"/>
     </row>
     <row r="199" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A199" s="9"/>
+      <c r="A199" s="9">
+        <f>HYPERLINK(G199, F199)</f>
+        <v>0</v>
+      </c>
       <c r="B199" s="10"/>
       <c r="C199" s="11"/>
       <c r="D199" s="18"/>
       <c r="E199" s="12"/>
     </row>
     <row r="200" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="9"/>
+      <c r="A200" s="9">
+        <f>HYPERLINK(G200, F200)</f>
+        <v>0</v>
+      </c>
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
       <c r="D200" s="18"/>
       <c r="E200" s="12"/>
     </row>
     <row r="201" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A201" s="9"/>
+      <c r="A201" s="9">
+        <f>HYPERLINK(G201, F201)</f>
+        <v>0</v>
+      </c>
       <c r="B201" s="10"/>
       <c r="C201" s="11"/>
       <c r="D201" s="18"/>
       <c r="E201" s="12"/>
     </row>
     <row r="202" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="9"/>
+      <c r="A202" s="9">
+        <f>HYPERLINK(G202, F202)</f>
+        <v>0</v>
+      </c>
       <c r="B202" s="10"/>
       <c r="C202" s="11"/>
       <c r="D202" s="18"/>
       <c r="E202" s="12"/>
     </row>
     <row r="203" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A203" s="9"/>
+      <c r="A203" s="9">
+        <f>HYPERLINK(G203, F203)</f>
+        <v>0</v>
+      </c>
       <c r="B203" s="10"/>
       <c r="C203" s="11"/>
       <c r="D203" s="18"/>
       <c r="E203" s="12"/>
     </row>
     <row r="204" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="9"/>
+      <c r="A204" s="9">
+        <f>HYPERLINK(G204, F204)</f>
+        <v>0</v>
+      </c>
       <c r="B204" s="10"/>
       <c r="C204" s="11"/>
       <c r="D204" s="18"/>
       <c r="E204" s="12"/>
     </row>
     <row r="205" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A205" s="9"/>
+      <c r="A205" s="9">
+        <f>HYPERLINK(G205, F205)</f>
+        <v>0</v>
+      </c>
       <c r="B205" s="10"/>
       <c r="C205" s="11"/>
       <c r="D205" s="18"/>
       <c r="E205" s="12"/>
     </row>
     <row r="206" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A206" s="9"/>
+      <c r="A206" s="9">
+        <f>HYPERLINK(G206, F206)</f>
+        <v>0</v>
+      </c>
       <c r="B206" s="10"/>
       <c r="C206" s="11"/>
       <c r="D206" s="18"/>
       <c r="E206" s="12"/>
     </row>
     <row r="207" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A207" s="9"/>
+      <c r="A207" s="9">
+        <f>HYPERLINK(G207, F207)</f>
+        <v>0</v>
+      </c>
       <c r="B207" s="10"/>
       <c r="C207" s="11"/>
       <c r="D207" s="18"/>
       <c r="E207" s="12"/>
     </row>
     <row r="208" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A208" s="9"/>
+      <c r="A208" s="9">
+        <f>HYPERLINK(G208, F208)</f>
+        <v>0</v>
+      </c>
       <c r="B208" s="10"/>
       <c r="C208" s="11"/>
       <c r="D208" s="18"/>
       <c r="E208" s="12"/>
     </row>
     <row r="209" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A209" s="9"/>
+      <c r="A209" s="9">
+        <f>HYPERLINK(G209, F209)</f>
+        <v>0</v>
+      </c>
       <c r="B209" s="10"/>
       <c r="C209" s="11"/>
       <c r="D209" s="18"/>
       <c r="E209" s="12"/>
     </row>
     <row r="210" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A210" s="9"/>
+      <c r="A210" s="9">
+        <f>HYPERLINK(G210, F210)</f>
+        <v>0</v>
+      </c>
       <c r="B210" s="10"/>
       <c r="C210" s="11"/>
       <c r="D210" s="18"/>
       <c r="E210" s="12"/>
     </row>
     <row r="211" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A211" s="9"/>
+      <c r="A211" s="9">
+        <f>HYPERLINK(G211, F211)</f>
+        <v>0</v>
+      </c>
       <c r="B211" s="10"/>
       <c r="C211" s="11"/>
       <c r="D211" s="18"/>
       <c r="E211" s="12"/>
     </row>
     <row r="212" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A212" s="9"/>
+      <c r="A212" s="9">
+        <f>HYPERLINK(G212, F212)</f>
+        <v>0</v>
+      </c>
       <c r="B212" s="10"/>
       <c r="C212" s="11"/>
       <c r="D212" s="18"/>
       <c r="E212" s="12"/>
     </row>
     <row r="213" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A213" s="9"/>
+      <c r="A213" s="9">
+        <f>HYPERLINK(G213, F213)</f>
+        <v>0</v>
+      </c>
       <c r="B213" s="10"/>
       <c r="C213" s="11"/>
       <c r="D213" s="18"/>
       <c r="E213" s="12"/>
     </row>
     <row r="214" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A214" s="9"/>
+      <c r="A214" s="9">
+        <f>HYPERLINK(G214, F214)</f>
+        <v>0</v>
+      </c>
       <c r="B214" s="10"/>
       <c r="C214" s="11"/>
       <c r="D214" s="18"/>
       <c r="E214" s="12"/>
     </row>
     <row r="215" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A215" s="9"/>
+      <c r="A215" s="9">
+        <f>HYPERLINK(G215, F215)</f>
+        <v>0</v>
+      </c>
       <c r="B215" s="10"/>
       <c r="C215" s="11"/>
       <c r="D215" s="18"/>
       <c r="E215" s="12"/>
     </row>
     <row r="216" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="9"/>
+      <c r="A216" s="9">
+        <f>HYPERLINK(G216, F216)</f>
+        <v>0</v>
+      </c>
       <c r="B216" s="10"/>
       <c r="C216" s="11"/>
       <c r="D216" s="18"/>
       <c r="E216" s="12"/>
     </row>
     <row r="217" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A217" s="9"/>
+      <c r="A217" s="9">
+        <f>HYPERLINK(G217, F217)</f>
+        <v>0</v>
+      </c>
       <c r="B217" s="10"/>
       <c r="C217" s="11"/>
       <c r="D217" s="18"/>
       <c r="E217" s="12"/>
     </row>
     <row r="218" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A218" s="9"/>
+      <c r="A218" s="9">
+        <f>HYPERLINK(G218, F218)</f>
+        <v>0</v>
+      </c>
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
       <c r="D218" s="18"/>
       <c r="E218" s="12"/>
     </row>
     <row r="219" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A219" s="9"/>
+      <c r="A219" s="9">
+        <f>HYPERLINK(G219, F219)</f>
+        <v>0</v>
+      </c>
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
       <c r="D219" s="18"/>
       <c r="E219" s="12"/>
     </row>
     <row r="220" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A220" s="9"/>
+      <c r="A220" s="9">
+        <f>HYPERLINK(G220, F220)</f>
+        <v>0</v>
+      </c>
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
       <c r="D220" s="18"/>
       <c r="E220" s="12"/>
     </row>
     <row r="221" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="9"/>
+      <c r="A221" s="9">
+        <f>HYPERLINK(G221, F221)</f>
+        <v>0</v>
+      </c>
       <c r="B221" s="10"/>
       <c r="C221" s="11"/>
       <c r="D221" s="18"/>
       <c r="E221" s="12"/>
     </row>
     <row r="222" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A222" s="9"/>
+      <c r="A222" s="9">
+        <f>HYPERLINK(G222, F222)</f>
+        <v>0</v>
+      </c>
       <c r="B222" s="10"/>
       <c r="C222" s="11"/>
       <c r="D222" s="18"/>
       <c r="E222" s="12"/>
     </row>
     <row r="223" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A223" s="9"/>
+      <c r="A223" s="9">
+        <f>HYPERLINK(G223, F223)</f>
+        <v>0</v>
+      </c>
       <c r="B223" s="10"/>
       <c r="C223" s="11"/>
       <c r="D223" s="18"/>
       <c r="E223" s="12"/>
     </row>
     <row r="224" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="9"/>
+      <c r="A224" s="9">
+        <f>HYPERLINK(G224, F224)</f>
+        <v>0</v>
+      </c>
       <c r="B224" s="10"/>
       <c r="C224" s="11"/>
       <c r="D224" s="18"/>
       <c r="E224" s="12"/>
     </row>
     <row r="225" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="9"/>
+      <c r="A225" s="9">
+        <f>HYPERLINK(G225, F225)</f>
+        <v>0</v>
+      </c>
       <c r="B225" s="10"/>
       <c r="C225" s="11"/>
       <c r="D225" s="18"/>
       <c r="E225" s="12"/>
     </row>
     <row r="226" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A226" s="9"/>
+      <c r="A226" s="9">
+        <f>HYPERLINK(G226, F226)</f>
+        <v>0</v>
+      </c>
       <c r="B226" s="10"/>
       <c r="C226" s="11"/>
       <c r="D226" s="18"/>
       <c r="E226" s="12"/>
     </row>
     <row r="227" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A227" s="9"/>
+      <c r="A227" s="9">
+        <f>HYPERLINK(G227, F227)</f>
+        <v>0</v>
+      </c>
       <c r="B227" s="10"/>
       <c r="C227" s="11"/>
       <c r="D227" s="18"/>
@@ -2380,7 +3136,7 @@
       <c r="C253" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H258">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I253">
     <sortCondition ref="D1"/>
   </sortState>
   <conditionalFormatting sqref="B2:B1048576">
@@ -2400,7 +3156,7 @@
       <formula>"Shipped "</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B253" xr:uid="{0F5A02A9-0373-4B38-B9D4-EEB58B60F1C2}">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>

--- a/STABLE CODE/Jupyter/testfile.xlsx
+++ b/STABLE CODE/Jupyter/testfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA00CF-8EED-4515-80B3-5DBB94B75870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD38F19-FB7C-45D4-802D-64A92451C5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Just Received" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -387,111 +387,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -897,29 +792,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="166.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" style="5" customWidth="1"/>
-    <col min="12" max="15" width="8.7265625" style="5"/>
-    <col min="16" max="16" width="15.26953125" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="27.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="166.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="5" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="5"/>
+    <col min="16" max="16" width="15.28515625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -954,9 +847,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
-        <f t="shared" ref="A2:A6" si="0">HYPERLINK(I2, H2)</f>
+        <f t="shared" ref="A2:A13" si="0">HYPERLINK(I2, H2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
@@ -966,7 +859,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -981,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -996,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1011,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1020,11 +913,12 @@
       <c r="C6" s="9"/>
       <c r="D6" s="15"/>
       <c r="E6" s="10"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
-        <f>HYPERLINK(I7, H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
@@ -1034,9 +928,9 @@
       <c r="F7" s="18"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
-        <f>HYPERLINK(I8, H8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
@@ -1046,9 +940,9 @@
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
-        <f>HYPERLINK(I9, H9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
@@ -1057,9 +951,9 @@
       <c r="E9" s="10"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f>HYPERLINK(I10, H10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
@@ -1069,9 +963,9 @@
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
-        <f>HYPERLINK(I11, H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
@@ -1080,9 +974,9 @@
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
-        <f>HYPERLINK(I12, H12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" s="8"/>
@@ -1091,9 +985,9 @@
       <c r="E12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <f>HYPERLINK(I13, H13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" s="8"/>
@@ -1103,9 +997,9 @@
       <c r="F13" s="18"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <f>HYPERLINK(I14, H14)</f>
+        <f t="shared" ref="A14:A18" si="1">HYPERLINK(I14, H14)</f>
         <v>0</v>
       </c>
       <c r="B14" s="8"/>
@@ -1115,9 +1009,9 @@
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <f>HYPERLINK(I15, H15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
@@ -1126,9 +1020,9 @@
       <c r="E15" s="10"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <f>HYPERLINK(I16, H16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B16" s="8"/>
@@ -1137,9 +1031,9 @@
       <c r="E16" s="10"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <f>HYPERLINK(I17, H17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B17" s="8"/>
@@ -1148,9 +1042,9 @@
       <c r="E17" s="10"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <f>HYPERLINK(I18, H18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B18" s="8"/>
@@ -1159,9 +1053,9 @@
       <c r="E18" s="10"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <f t="shared" ref="A19:A82" si="1">HYPERLINK(I19, H19)</f>
+        <f t="shared" ref="A19:A82" si="2">HYPERLINK(I19, H19)</f>
         <v>0</v>
       </c>
       <c r="B19" s="8"/>
@@ -1170,9 +1064,9 @@
       <c r="E19" s="10"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B20" s="8"/>
@@ -1181,9 +1075,9 @@
       <c r="E20" s="10"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B21" s="8"/>
@@ -1192,9 +1086,9 @@
       <c r="E21" s="10"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B22" s="8"/>
@@ -1203,9 +1097,9 @@
       <c r="E22" s="10"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B23" s="8"/>
@@ -1214,9 +1108,9 @@
       <c r="E23" s="10"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B24" s="8"/>
@@ -1225,9 +1119,9 @@
       <c r="E24" s="10"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B25" s="8"/>
@@ -1236,9 +1130,9 @@
       <c r="E25" s="10"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B26" s="8"/>
@@ -1247,9 +1141,9 @@
       <c r="E26" s="10"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B27" s="8"/>
@@ -1258,9 +1152,9 @@
       <c r="E27" s="10"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B28" s="8"/>
@@ -1269,9 +1163,9 @@
       <c r="E28" s="10"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B29" s="8"/>
@@ -1280,9 +1174,9 @@
       <c r="E29" s="10"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B30" s="8"/>
@@ -1291,9 +1185,9 @@
       <c r="E30" s="10"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B31" s="8"/>
@@ -1302,9 +1196,9 @@
       <c r="E31" s="10"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B32" s="8"/>
@@ -1313,9 +1207,9 @@
       <c r="E32" s="10"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B33" s="8"/>
@@ -1324,9 +1218,9 @@
       <c r="E33" s="10"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B34" s="8"/>
@@ -1335,9 +1229,9 @@
       <c r="E34" s="10"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B35" s="8"/>
@@ -1346,9 +1240,9 @@
       <c r="E35" s="10"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B36" s="8"/>
@@ -1357,9 +1251,9 @@
       <c r="E36" s="10"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B37" s="8"/>
@@ -1368,9 +1262,9 @@
       <c r="E37" s="10"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B38" s="8"/>
@@ -1379,9 +1273,9 @@
       <c r="E38" s="10"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B39" s="8"/>
@@ -1390,9 +1284,9 @@
       <c r="E39" s="10"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B40" s="8"/>
@@ -1401,9 +1295,9 @@
       <c r="E40" s="10"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B41" s="8"/>
@@ -1412,9 +1306,9 @@
       <c r="E41" s="10"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B42" s="8"/>
@@ -1423,9 +1317,9 @@
       <c r="E42" s="10"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B43" s="8"/>
@@ -1434,9 +1328,9 @@
       <c r="E43" s="10"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B44" s="8"/>
@@ -1445,9 +1339,9 @@
       <c r="E44" s="10"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B45" s="8"/>
@@ -1456,9 +1350,9 @@
       <c r="E45" s="10"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B46" s="8"/>
@@ -1467,9 +1361,9 @@
       <c r="E46" s="10"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B47" s="8"/>
@@ -1478,9 +1372,9 @@
       <c r="E47" s="10"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B48" s="8"/>
@@ -1489,9 +1383,9 @@
       <c r="E48" s="10"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B49" s="8"/>
@@ -1500,9 +1394,9 @@
       <c r="E49" s="10"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B50" s="8"/>
@@ -1511,9 +1405,9 @@
       <c r="E50" s="10"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B51" s="8"/>
@@ -1522,9 +1416,9 @@
       <c r="E51" s="10"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B52" s="8"/>
@@ -1533,9 +1427,9 @@
       <c r="E52" s="10"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B53" s="8"/>
@@ -1544,9 +1438,9 @@
       <c r="E53" s="10"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B54" s="8"/>
@@ -1555,9 +1449,9 @@
       <c r="E54" s="10"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B55" s="8"/>
@@ -1566,9 +1460,9 @@
       <c r="E55" s="10"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B56" s="8"/>
@@ -1577,9 +1471,9 @@
       <c r="E56" s="10"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B57" s="8"/>
@@ -1588,9 +1482,9 @@
       <c r="E57" s="10"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B58" s="8"/>
@@ -1599,9 +1493,9 @@
       <c r="E58" s="10"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B59" s="8"/>
@@ -1610,9 +1504,9 @@
       <c r="E59" s="10"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B60" s="8"/>
@@ -1621,9 +1515,9 @@
       <c r="E60" s="10"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B61" s="8"/>
@@ -1632,9 +1526,9 @@
       <c r="E61" s="10"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B62" s="8"/>
@@ -1643,9 +1537,9 @@
       <c r="E62" s="10"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B63" s="8"/>
@@ -1654,9 +1548,9 @@
       <c r="E63" s="10"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B64" s="8"/>
@@ -1665,9 +1559,9 @@
       <c r="E64" s="10"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B65" s="8"/>
@@ -1676,9 +1570,9 @@
       <c r="E65" s="10"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B66" s="8"/>
@@ -1687,9 +1581,9 @@
       <c r="E66" s="10"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B67" s="8"/>
@@ -1698,9 +1592,9 @@
       <c r="E67" s="10"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B68" s="8"/>
@@ -1709,9 +1603,9 @@
       <c r="E68" s="10"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B69" s="8"/>
@@ -1720,9 +1614,9 @@
       <c r="E69" s="10"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B70" s="8"/>
@@ -1731,9 +1625,9 @@
       <c r="E70" s="10"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B71" s="8"/>
@@ -1742,9 +1636,9 @@
       <c r="E71" s="10"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B72" s="8"/>
@@ -1753,9 +1647,9 @@
       <c r="E72" s="10"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B73" s="8"/>
@@ -1764,9 +1658,9 @@
       <c r="E73" s="10"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B74" s="8"/>
@@ -1775,9 +1669,9 @@
       <c r="E74" s="10"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B75" s="8"/>
@@ -1786,9 +1680,9 @@
       <c r="E75" s="10"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B76" s="8"/>
@@ -1797,9 +1691,9 @@
       <c r="E76" s="10"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B77" s="8"/>
@@ -1808,9 +1702,9 @@
       <c r="E77" s="10"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B78" s="8"/>
@@ -1819,9 +1713,9 @@
       <c r="E78" s="10"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B79" s="8"/>
@@ -1830,9 +1724,9 @@
       <c r="E79" s="10"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B80" s="8"/>
@@ -1841,9 +1735,9 @@
       <c r="E80" s="10"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B81" s="8"/>
@@ -1852,9 +1746,9 @@
       <c r="E81" s="10"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B82" s="8"/>
@@ -1863,9 +1757,9 @@
       <c r="E82" s="10"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
-        <f t="shared" ref="A83:A146" si="2">HYPERLINK(I83, H83)</f>
+        <f t="shared" ref="A83:A146" si="3">HYPERLINK(I83, H83)</f>
         <v>0</v>
       </c>
       <c r="B83" s="8"/>
@@ -1874,9 +1768,9 @@
       <c r="E83" s="10"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B84" s="8"/>
@@ -1885,9 +1779,9 @@
       <c r="E84" s="10"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B85" s="8"/>
@@ -1896,9 +1790,9 @@
       <c r="E85" s="10"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B86" s="8"/>
@@ -1907,9 +1801,9 @@
       <c r="E86" s="10"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B87" s="8"/>
@@ -1918,9 +1812,9 @@
       <c r="E87" s="10"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B88" s="8"/>
@@ -1929,9 +1823,9 @@
       <c r="E88" s="10"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B89" s="8"/>
@@ -1940,9 +1834,9 @@
       <c r="E89" s="10"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B90" s="8"/>
@@ -1951,9 +1845,9 @@
       <c r="E90" s="10"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B91" s="8"/>
@@ -1962,9 +1856,9 @@
       <c r="E91" s="10"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B92" s="8"/>
@@ -1973,9 +1867,9 @@
       <c r="E92" s="10"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B93" s="8"/>
@@ -1984,9 +1878,9 @@
       <c r="E93" s="10"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B94" s="8"/>
@@ -1995,9 +1889,9 @@
       <c r="E94" s="10"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B95" s="8"/>
@@ -2006,9 +1900,9 @@
       <c r="E95" s="10"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B96" s="8"/>
@@ -2017,9 +1911,9 @@
       <c r="E96" s="10"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B97" s="8"/>
@@ -2028,9 +1922,9 @@
       <c r="E97" s="10"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B98" s="8"/>
@@ -2039,9 +1933,9 @@
       <c r="E98" s="10"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B99" s="8"/>
@@ -2050,9 +1944,9 @@
       <c r="E99" s="10"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B100" s="8"/>
@@ -2061,9 +1955,9 @@
       <c r="E100" s="10"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B101" s="8"/>
@@ -2072,9 +1966,9 @@
       <c r="E101" s="10"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B102" s="8"/>
@@ -2083,9 +1977,9 @@
       <c r="E102" s="10"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B103" s="8"/>
@@ -2094,9 +1988,9 @@
       <c r="E103" s="10"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B104" s="8"/>
@@ -2105,9 +1999,9 @@
       <c r="E104" s="10"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B105" s="8"/>
@@ -2116,9 +2010,9 @@
       <c r="E105" s="10"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B106" s="8"/>
@@ -2127,9 +2021,9 @@
       <c r="E106" s="10"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B107" s="8"/>
@@ -2138,9 +2032,9 @@
       <c r="E107" s="10"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B108" s="8"/>
@@ -2149,9 +2043,9 @@
       <c r="E108" s="10"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B109" s="8"/>
@@ -2160,9 +2054,9 @@
       <c r="E109" s="10"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B110" s="8"/>
@@ -2171,9 +2065,9 @@
       <c r="E110" s="10"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B111" s="8"/>
@@ -2182,9 +2076,9 @@
       <c r="E111" s="10"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B112" s="8"/>
@@ -2193,9 +2087,9 @@
       <c r="E112" s="10"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B113" s="8"/>
@@ -2204,9 +2098,9 @@
       <c r="E113" s="10"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B114" s="8"/>
@@ -2215,9 +2109,9 @@
       <c r="E114" s="10"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B115" s="8"/>
@@ -2226,9 +2120,9 @@
       <c r="E115" s="10"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B116" s="8"/>
@@ -2237,9 +2131,9 @@
       <c r="E116" s="10"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B117" s="8"/>
@@ -2248,9 +2142,9 @@
       <c r="E117" s="10"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B118" s="8"/>
@@ -2259,9 +2153,9 @@
       <c r="E118" s="10"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B119" s="8"/>
@@ -2270,9 +2164,9 @@
       <c r="E119" s="10"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B120" s="8"/>
@@ -2281,9 +2175,9 @@
       <c r="E120" s="10"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B121" s="8"/>
@@ -2292,9 +2186,9 @@
       <c r="E121" s="10"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B122" s="8"/>
@@ -2303,9 +2197,9 @@
       <c r="E122" s="10"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B123" s="8"/>
@@ -2314,9 +2208,9 @@
       <c r="E123" s="10"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B124" s="8"/>
@@ -2325,9 +2219,9 @@
       <c r="E124" s="10"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B125" s="8"/>
@@ -2336,9 +2230,9 @@
       <c r="E125" s="10"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B126" s="8"/>
@@ -2347,9 +2241,9 @@
       <c r="E126" s="10"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B127" s="8"/>
@@ -2358,9 +2252,9 @@
       <c r="E127" s="10"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B128" s="8"/>
@@ -2369,9 +2263,9 @@
       <c r="E128" s="10"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B129" s="8"/>
@@ -2380,9 +2274,9 @@
       <c r="E129" s="10"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B130" s="8"/>
@@ -2391,9 +2285,9 @@
       <c r="E130" s="10"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B131" s="8"/>
@@ -2402,9 +2296,9 @@
       <c r="E131" s="10"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B132" s="8"/>
@@ -2413,9 +2307,9 @@
       <c r="E132" s="10"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B133" s="8"/>
@@ -2424,9 +2318,9 @@
       <c r="E133" s="10"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B134" s="8"/>
@@ -2435,9 +2329,9 @@
       <c r="E134" s="10"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B135" s="8"/>
@@ -2446,9 +2340,9 @@
       <c r="E135" s="10"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B136" s="8"/>
@@ -2457,9 +2351,9 @@
       <c r="E136" s="10"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B137" s="8"/>
@@ -2468,9 +2362,9 @@
       <c r="E137" s="10"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B138" s="8"/>
@@ -2479,9 +2373,9 @@
       <c r="E138" s="10"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B139" s="8"/>
@@ -2490,9 +2384,9 @@
       <c r="E139" s="10"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B140" s="8"/>
@@ -2501,9 +2395,9 @@
       <c r="E140" s="10"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B141" s="8"/>
@@ -2512,9 +2406,9 @@
       <c r="E141" s="10"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B142" s="8"/>
@@ -2523,9 +2417,9 @@
       <c r="E142" s="10"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B143" s="8"/>
@@ -2534,9 +2428,9 @@
       <c r="E143" s="10"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B144" s="8"/>
@@ -2545,9 +2439,9 @@
       <c r="E144" s="10"/>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B145" s="8"/>
@@ -2556,9 +2450,9 @@
       <c r="E145" s="10"/>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B146" s="8"/>
@@ -2567,9 +2461,9 @@
       <c r="E146" s="10"/>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19">
-        <f t="shared" ref="A147:A210" si="3">HYPERLINK(I147, H147)</f>
+        <f t="shared" ref="A147:A210" si="4">HYPERLINK(I147, H147)</f>
         <v>0</v>
       </c>
       <c r="B147" s="8"/>
@@ -2578,9 +2472,9 @@
       <c r="E147" s="10"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B148" s="8"/>
@@ -2589,9 +2483,9 @@
       <c r="E148" s="10"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B149" s="8"/>
@@ -2600,9 +2494,9 @@
       <c r="E149" s="10"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B150" s="8"/>
@@ -2611,9 +2505,9 @@
       <c r="E150" s="10"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B151" s="8"/>
@@ -2622,9 +2516,9 @@
       <c r="E151" s="10"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B152" s="8"/>
@@ -2633,9 +2527,9 @@
       <c r="E152" s="10"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B153" s="8"/>
@@ -2644,9 +2538,9 @@
       <c r="E153" s="10"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B154" s="8"/>
@@ -2655,9 +2549,9 @@
       <c r="E154" s="10"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B155" s="8"/>
@@ -2666,9 +2560,9 @@
       <c r="E155" s="10"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B156" s="8"/>
@@ -2677,9 +2571,9 @@
       <c r="E156" s="10"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B157" s="8"/>
@@ -2688,9 +2582,9 @@
       <c r="E157" s="10"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B158" s="8"/>
@@ -2699,9 +2593,9 @@
       <c r="E158" s="10"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B159" s="8"/>
@@ -2710,9 +2604,9 @@
       <c r="E159" s="10"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B160" s="8"/>
@@ -2721,9 +2615,9 @@
       <c r="E160" s="10"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B161" s="8"/>
@@ -2732,9 +2626,9 @@
       <c r="E161" s="10"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B162" s="8"/>
@@ -2743,9 +2637,9 @@
       <c r="E162" s="10"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B163" s="8"/>
@@ -2754,9 +2648,9 @@
       <c r="E163" s="10"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B164" s="8"/>
@@ -2765,9 +2659,9 @@
       <c r="E164" s="10"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B165" s="8"/>
@@ -2776,9 +2670,9 @@
       <c r="E165" s="10"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B166" s="8"/>
@@ -2787,9 +2681,9 @@
       <c r="E166" s="10"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B167" s="8"/>
@@ -2798,9 +2692,9 @@
       <c r="E167" s="10"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B168" s="8"/>
@@ -2809,9 +2703,9 @@
       <c r="E168" s="10"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B169" s="8"/>
@@ -2820,9 +2714,9 @@
       <c r="E169" s="10"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B170" s="8"/>
@@ -2831,9 +2725,9 @@
       <c r="E170" s="10"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B171" s="8"/>
@@ -2842,9 +2736,9 @@
       <c r="E171" s="10"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B172" s="8"/>
@@ -2853,9 +2747,9 @@
       <c r="E172" s="10"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B173" s="8"/>
@@ -2864,9 +2758,9 @@
       <c r="E173" s="10"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B174" s="8"/>
@@ -2875,9 +2769,9 @@
       <c r="E174" s="10"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B175" s="8"/>
@@ -2886,9 +2780,9 @@
       <c r="E175" s="10"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B176" s="8"/>
@@ -2897,9 +2791,9 @@
       <c r="E176" s="10"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B177" s="8"/>
@@ -2908,9 +2802,9 @@
       <c r="E177" s="10"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B178" s="8"/>
@@ -2919,9 +2813,9 @@
       <c r="E178" s="10"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B179" s="8"/>
@@ -2930,9 +2824,9 @@
       <c r="E179" s="10"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B180" s="8"/>
@@ -2941,9 +2835,9 @@
       <c r="E180" s="10"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B181" s="8"/>
@@ -2952,9 +2846,9 @@
       <c r="E181" s="10"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B182" s="8"/>
@@ -2963,9 +2857,9 @@
       <c r="E182" s="10"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B183" s="8"/>
@@ -2974,9 +2868,9 @@
       <c r="E183" s="10"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B184" s="8"/>
@@ -2985,9 +2879,9 @@
       <c r="E184" s="10"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B185" s="8"/>
@@ -2996,9 +2890,9 @@
       <c r="E185" s="10"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B186" s="8"/>
@@ -3007,9 +2901,9 @@
       <c r="E186" s="10"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B187" s="8"/>
@@ -3018,9 +2912,9 @@
       <c r="E187" s="10"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B188" s="8"/>
@@ -3029,9 +2923,9 @@
       <c r="E188" s="10"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B189" s="8"/>
@@ -3040,9 +2934,9 @@
       <c r="E189" s="10"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B190" s="8"/>
@@ -3051,9 +2945,9 @@
       <c r="E190" s="10"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B191" s="8"/>
@@ -3062,9 +2956,9 @@
       <c r="E191" s="10"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B192" s="8"/>
@@ -3073,9 +2967,9 @@
       <c r="E192" s="10"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B193" s="8"/>
@@ -3084,9 +2978,9 @@
       <c r="E193" s="10"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B194" s="8"/>
@@ -3095,9 +2989,9 @@
       <c r="E194" s="10"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B195" s="8"/>
@@ -3106,9 +3000,9 @@
       <c r="E195" s="10"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B196" s="8"/>
@@ -3117,9 +3011,9 @@
       <c r="E196" s="10"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B197" s="8"/>
@@ -3128,9 +3022,9 @@
       <c r="E197" s="10"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B198" s="8"/>
@@ -3139,9 +3033,9 @@
       <c r="E198" s="10"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B199" s="8"/>
@@ -3150,9 +3044,9 @@
       <c r="E199" s="10"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B200" s="8"/>
@@ -3161,9 +3055,9 @@
       <c r="E200" s="10"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B201" s="8"/>
@@ -3172,9 +3066,9 @@
       <c r="E201" s="10"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B202" s="8"/>
@@ -3183,9 +3077,9 @@
       <c r="E202" s="10"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B203" s="8"/>
@@ -3194,9 +3088,9 @@
       <c r="E203" s="10"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B204" s="8"/>
@@ -3205,9 +3099,9 @@
       <c r="E204" s="10"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B205" s="8"/>
@@ -3216,9 +3110,9 @@
       <c r="E205" s="10"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B206" s="8"/>
@@ -3227,9 +3121,9 @@
       <c r="E206" s="10"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B207" s="8"/>
@@ -3238,9 +3132,9 @@
       <c r="E207" s="10"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B208" s="8"/>
@@ -3249,9 +3143,9 @@
       <c r="E208" s="10"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B209" s="8"/>
@@ -3260,9 +3154,9 @@
       <c r="E209" s="10"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B210" s="8"/>
@@ -3271,9 +3165,9 @@
       <c r="E210" s="10"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19">
-        <f t="shared" ref="A211:A227" si="4">HYPERLINK(I211, H211)</f>
+        <f t="shared" ref="A211:A227" si="5">HYPERLINK(I211, H211)</f>
         <v>0</v>
       </c>
       <c r="B211" s="8"/>
@@ -3282,9 +3176,9 @@
       <c r="E211" s="10"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B212" s="8"/>
@@ -3293,9 +3187,9 @@
       <c r="E212" s="10"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B213" s="8"/>
@@ -3304,9 +3198,9 @@
       <c r="E213" s="10"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B214" s="8"/>
@@ -3315,9 +3209,9 @@
       <c r="E214" s="10"/>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B215" s="8"/>
@@ -3326,9 +3220,9 @@
       <c r="E215" s="10"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B216" s="8"/>
@@ -3337,9 +3231,9 @@
       <c r="E216" s="10"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B217" s="8"/>
@@ -3348,9 +3242,9 @@
       <c r="E217" s="10"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B218" s="8"/>
@@ -3359,9 +3253,9 @@
       <c r="E218" s="10"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B219" s="8"/>
@@ -3370,9 +3264,9 @@
       <c r="E219" s="10"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B220" s="8"/>
@@ -3381,9 +3275,9 @@
       <c r="E220" s="10"/>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B221" s="8"/>
@@ -3392,9 +3286,9 @@
       <c r="E221" s="10"/>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B222" s="8"/>
@@ -3403,9 +3297,9 @@
       <c r="E222" s="10"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B223" s="8"/>
@@ -3414,9 +3308,9 @@
       <c r="E223" s="10"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B224" s="8"/>
@@ -3425,9 +3319,9 @@
       <c r="E224" s="10"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B225" s="8"/>
@@ -3436,9 +3330,9 @@
       <c r="E225" s="10"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B226" s="8"/>
@@ -3447,9 +3341,9 @@
       <c r="E226" s="10"/>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B227" s="8"/>
@@ -3458,108 +3352,108 @@
       <c r="E227" s="10"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="C228" s="12"/>
       <c r="F228" s="21"/>
     </row>
-    <row r="229" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="C229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="C230" s="12"/>
     </row>
-    <row r="231" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="C231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="C232" s="12"/>
     </row>
-    <row r="233" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="C233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="C234" s="12"/>
     </row>
-    <row r="235" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="C235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="C236" s="12"/>
     </row>
-    <row r="237" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="C237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="C238" s="12"/>
     </row>
-    <row r="239" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="C239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="C240" s="12"/>
     </row>
-    <row r="241" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="C241" s="12"/>
     </row>
-    <row r="242" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="C242" s="12"/>
     </row>
-    <row r="243" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="C243" s="12"/>
     </row>
-    <row r="244" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="C244" s="12"/>
     </row>
-    <row r="245" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="C245" s="12"/>
     </row>
-    <row r="246" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="C246" s="12"/>
     </row>
-    <row r="247" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="C247" s="12"/>
     </row>
-    <row r="248" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="C248" s="12"/>
     </row>
-    <row r="249" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="C249" s="12"/>
     </row>
-    <row r="250" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="C250" s="12"/>
     </row>
-    <row r="251" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="C251" s="12"/>
     </row>
-    <row r="252" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="C252" s="12"/>
     </row>
-    <row r="253" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="C253" s="14"/>
     </row>
@@ -3568,27 +3462,27 @@
     <sortCondition ref="D1"/>
   </sortState>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"Shipped "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"Shipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Billed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Shipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Just Received"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Shipped"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Shipped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3607,29 +3501,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="166.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" style="5" customWidth="1"/>
-    <col min="12" max="15" width="8.7265625" style="5"/>
-    <col min="16" max="16" width="15.26953125" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="27.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="166.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="5" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="5"/>
+    <col min="16" max="16" width="15.28515625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <f t="shared" ref="A2:A5" si="0">HYPERLINK(I2, H2)</f>
         <v>0</v>
@@ -3676,7 +3570,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3688,7 +3582,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3697,9 +3591,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="16"/>
       <c r="E4" s="10"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3710,9 +3605,9 @@
       <c r="E5" s="10"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
-        <f>HYPERLINK(I6, H6)</f>
+        <f t="shared" ref="A6:A18" si="1">HYPERLINK(I6, H6)</f>
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
@@ -3721,9 +3616,9 @@
       <c r="E6" s="10"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
-        <f>HYPERLINK(I7, H7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
@@ -3732,9 +3627,9 @@
       <c r="E7" s="10"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
-        <f>HYPERLINK(I8, H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
@@ -3744,9 +3639,9 @@
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
-        <f>HYPERLINK(I9, H9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
@@ -3756,9 +3651,9 @@
       <c r="F9" s="18"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f>HYPERLINK(I10, H10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
@@ -3768,9 +3663,9 @@
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
-        <f>HYPERLINK(I11, H11)</f>
+    <row r="11" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
@@ -3779,9 +3674,9 @@
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
-        <f>HYPERLINK(I12, H12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B12" s="8"/>
@@ -3790,9 +3685,9 @@
       <c r="E12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <f>HYPERLINK(I13, H13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B13" s="8"/>
@@ -3801,9 +3696,9 @@
       <c r="E13" s="10"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <f>HYPERLINK(I14, H14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B14" s="8"/>
@@ -3812,9 +3707,9 @@
       <c r="E14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <f>HYPERLINK(I15, H15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
@@ -3823,9 +3718,9 @@
       <c r="E15" s="10"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <f>HYPERLINK(I16, H16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B16" s="8"/>
@@ -3834,9 +3729,9 @@
       <c r="E16" s="10"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <f>HYPERLINK(I17, H17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B17" s="8"/>
@@ -3845,9 +3740,9 @@
       <c r="E17" s="10"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <f>HYPERLINK(I18, H18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B18" s="8"/>
@@ -3856,9 +3751,9 @@
       <c r="E18" s="10"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <f t="shared" ref="A19:A82" si="1">HYPERLINK(I19, H19)</f>
+        <f t="shared" ref="A19:A82" si="2">HYPERLINK(I19, H19)</f>
         <v>0</v>
       </c>
       <c r="B19" s="8"/>
@@ -3867,9 +3762,9 @@
       <c r="E19" s="10"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B20" s="8"/>
@@ -3878,9 +3773,9 @@
       <c r="E20" s="10"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B21" s="8"/>
@@ -3889,9 +3784,9 @@
       <c r="E21" s="10"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B22" s="8"/>
@@ -3900,9 +3795,9 @@
       <c r="E22" s="10"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B23" s="8"/>
@@ -3911,9 +3806,9 @@
       <c r="E23" s="10"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B24" s="8"/>
@@ -3922,9 +3817,9 @@
       <c r="E24" s="10"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B25" s="8"/>
@@ -3933,9 +3828,9 @@
       <c r="E25" s="10"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B26" s="8"/>
@@ -3944,9 +3839,9 @@
       <c r="E26" s="10"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B27" s="8"/>
@@ -3955,9 +3850,9 @@
       <c r="E27" s="10"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B28" s="8"/>
@@ -3966,9 +3861,9 @@
       <c r="E28" s="10"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B29" s="8"/>
@@ -3977,9 +3872,9 @@
       <c r="E29" s="10"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B30" s="8"/>
@@ -3988,9 +3883,9 @@
       <c r="E30" s="10"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B31" s="8"/>
@@ -3999,9 +3894,9 @@
       <c r="E31" s="10"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B32" s="8"/>
@@ -4010,9 +3905,9 @@
       <c r="E32" s="10"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B33" s="8"/>
@@ -4021,9 +3916,9 @@
       <c r="E33" s="10"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B34" s="8"/>
@@ -4032,9 +3927,9 @@
       <c r="E34" s="10"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B35" s="8"/>
@@ -4043,9 +3938,9 @@
       <c r="E35" s="10"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B36" s="8"/>
@@ -4054,9 +3949,9 @@
       <c r="E36" s="10"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B37" s="8"/>
@@ -4065,9 +3960,9 @@
       <c r="E37" s="10"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B38" s="8"/>
@@ -4076,9 +3971,9 @@
       <c r="E38" s="10"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B39" s="8"/>
@@ -4087,9 +3982,9 @@
       <c r="E39" s="10"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B40" s="8"/>
@@ -4098,9 +3993,9 @@
       <c r="E40" s="10"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B41" s="8"/>
@@ -4109,9 +4004,9 @@
       <c r="E41" s="10"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B42" s="8"/>
@@ -4120,9 +4015,9 @@
       <c r="E42" s="10"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B43" s="8"/>
@@ -4131,9 +4026,9 @@
       <c r="E43" s="10"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B44" s="8"/>
@@ -4142,9 +4037,9 @@
       <c r="E44" s="10"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B45" s="8"/>
@@ -4153,9 +4048,9 @@
       <c r="E45" s="10"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B46" s="8"/>
@@ -4164,9 +4059,9 @@
       <c r="E46" s="10"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B47" s="8"/>
@@ -4175,9 +4070,9 @@
       <c r="E47" s="10"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B48" s="8"/>
@@ -4186,9 +4081,9 @@
       <c r="E48" s="10"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B49" s="8"/>
@@ -4197,9 +4092,9 @@
       <c r="E49" s="10"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B50" s="8"/>
@@ -4208,9 +4103,9 @@
       <c r="E50" s="10"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B51" s="8"/>
@@ -4219,9 +4114,9 @@
       <c r="E51" s="10"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B52" s="8"/>
@@ -4230,9 +4125,9 @@
       <c r="E52" s="10"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B53" s="8"/>
@@ -4241,9 +4136,9 @@
       <c r="E53" s="10"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B54" s="8"/>
@@ -4252,9 +4147,9 @@
       <c r="E54" s="10"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B55" s="8"/>
@@ -4263,9 +4158,9 @@
       <c r="E55" s="10"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B56" s="8"/>
@@ -4274,9 +4169,9 @@
       <c r="E56" s="10"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B57" s="8"/>
@@ -4285,9 +4180,9 @@
       <c r="E57" s="10"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B58" s="8"/>
@@ -4296,9 +4191,9 @@
       <c r="E58" s="10"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B59" s="8"/>
@@ -4307,9 +4202,9 @@
       <c r="E59" s="10"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B60" s="8"/>
@@ -4318,9 +4213,9 @@
       <c r="E60" s="10"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B61" s="8"/>
@@ -4329,9 +4224,9 @@
       <c r="E61" s="10"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B62" s="8"/>
@@ -4340,9 +4235,9 @@
       <c r="E62" s="10"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B63" s="8"/>
@@ -4351,9 +4246,9 @@
       <c r="E63" s="10"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B64" s="8"/>
@@ -4362,9 +4257,9 @@
       <c r="E64" s="10"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B65" s="8"/>
@@ -4373,9 +4268,9 @@
       <c r="E65" s="10"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B66" s="8"/>
@@ -4384,9 +4279,9 @@
       <c r="E66" s="10"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B67" s="8"/>
@@ -4395,9 +4290,9 @@
       <c r="E67" s="10"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B68" s="8"/>
@@ -4406,9 +4301,9 @@
       <c r="E68" s="10"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B69" s="8"/>
@@ -4417,9 +4312,9 @@
       <c r="E69" s="10"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B70" s="8"/>
@@ -4428,9 +4323,9 @@
       <c r="E70" s="10"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B71" s="8"/>
@@ -4439,9 +4334,9 @@
       <c r="E71" s="10"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B72" s="8"/>
@@ -4450,9 +4345,9 @@
       <c r="E72" s="10"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B73" s="8"/>
@@ -4461,9 +4356,9 @@
       <c r="E73" s="10"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B74" s="8"/>
@@ -4472,9 +4367,9 @@
       <c r="E74" s="10"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B75" s="8"/>
@@ -4483,9 +4378,9 @@
       <c r="E75" s="10"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B76" s="8"/>
@@ -4494,9 +4389,9 @@
       <c r="E76" s="10"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B77" s="8"/>
@@ -4505,9 +4400,9 @@
       <c r="E77" s="10"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B78" s="8"/>
@@ -4516,9 +4411,9 @@
       <c r="E78" s="10"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B79" s="8"/>
@@ -4527,9 +4422,9 @@
       <c r="E79" s="10"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B80" s="8"/>
@@ -4538,9 +4433,9 @@
       <c r="E80" s="10"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B81" s="8"/>
@@ -4549,9 +4444,9 @@
       <c r="E81" s="10"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B82" s="8"/>
@@ -4560,9 +4455,9 @@
       <c r="E82" s="10"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
-        <f t="shared" ref="A83:A146" si="2">HYPERLINK(I83, H83)</f>
+        <f t="shared" ref="A83:A146" si="3">HYPERLINK(I83, H83)</f>
         <v>0</v>
       </c>
       <c r="B83" s="8"/>
@@ -4571,9 +4466,9 @@
       <c r="E83" s="10"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B84" s="8"/>
@@ -4582,9 +4477,9 @@
       <c r="E84" s="10"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B85" s="8"/>
@@ -4593,9 +4488,9 @@
       <c r="E85" s="10"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B86" s="8"/>
@@ -4604,9 +4499,9 @@
       <c r="E86" s="10"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B87" s="8"/>
@@ -4615,9 +4510,9 @@
       <c r="E87" s="10"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B88" s="8"/>
@@ -4626,9 +4521,9 @@
       <c r="E88" s="10"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B89" s="8"/>
@@ -4637,9 +4532,9 @@
       <c r="E89" s="10"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B90" s="8"/>
@@ -4648,9 +4543,9 @@
       <c r="E90" s="10"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B91" s="8"/>
@@ -4659,9 +4554,9 @@
       <c r="E91" s="10"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B92" s="8"/>
@@ -4670,9 +4565,9 @@
       <c r="E92" s="10"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B93" s="8"/>
@@ -4681,9 +4576,9 @@
       <c r="E93" s="10"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B94" s="8"/>
@@ -4692,9 +4587,9 @@
       <c r="E94" s="10"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B95" s="8"/>
@@ -4703,9 +4598,9 @@
       <c r="E95" s="10"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B96" s="8"/>
@@ -4714,9 +4609,9 @@
       <c r="E96" s="10"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B97" s="8"/>
@@ -4725,9 +4620,9 @@
       <c r="E97" s="10"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B98" s="8"/>
@@ -4736,9 +4631,9 @@
       <c r="E98" s="10"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B99" s="8"/>
@@ -4747,9 +4642,9 @@
       <c r="E99" s="10"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B100" s="8"/>
@@ -4758,9 +4653,9 @@
       <c r="E100" s="10"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B101" s="8"/>
@@ -4769,9 +4664,9 @@
       <c r="E101" s="10"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B102" s="8"/>
@@ -4780,9 +4675,9 @@
       <c r="E102" s="10"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B103" s="8"/>
@@ -4791,9 +4686,9 @@
       <c r="E103" s="10"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B104" s="8"/>
@@ -4802,9 +4697,9 @@
       <c r="E104" s="10"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B105" s="8"/>
@@ -4813,9 +4708,9 @@
       <c r="E105" s="10"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B106" s="8"/>
@@ -4824,9 +4719,9 @@
       <c r="E106" s="10"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B107" s="8"/>
@@ -4835,9 +4730,9 @@
       <c r="E107" s="10"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B108" s="8"/>
@@ -4846,9 +4741,9 @@
       <c r="E108" s="10"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B109" s="8"/>
@@ -4857,9 +4752,9 @@
       <c r="E109" s="10"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B110" s="8"/>
@@ -4868,9 +4763,9 @@
       <c r="E110" s="10"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B111" s="8"/>
@@ -4879,9 +4774,9 @@
       <c r="E111" s="10"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B112" s="8"/>
@@ -4890,9 +4785,9 @@
       <c r="E112" s="10"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B113" s="8"/>
@@ -4901,9 +4796,9 @@
       <c r="E113" s="10"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B114" s="8"/>
@@ -4912,9 +4807,9 @@
       <c r="E114" s="10"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B115" s="8"/>
@@ -4923,9 +4818,9 @@
       <c r="E115" s="10"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B116" s="8"/>
@@ -4934,9 +4829,9 @@
       <c r="E116" s="10"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B117" s="8"/>
@@ -4945,9 +4840,9 @@
       <c r="E117" s="10"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B118" s="8"/>
@@ -4956,9 +4851,9 @@
       <c r="E118" s="10"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B119" s="8"/>
@@ -4967,9 +4862,9 @@
       <c r="E119" s="10"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B120" s="8"/>
@@ -4978,9 +4873,9 @@
       <c r="E120" s="10"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B121" s="8"/>
@@ -4989,9 +4884,9 @@
       <c r="E121" s="10"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B122" s="8"/>
@@ -5000,9 +4895,9 @@
       <c r="E122" s="10"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B123" s="8"/>
@@ -5011,9 +4906,9 @@
       <c r="E123" s="10"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B124" s="8"/>
@@ -5022,9 +4917,9 @@
       <c r="E124" s="10"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B125" s="8"/>
@@ -5033,9 +4928,9 @@
       <c r="E125" s="10"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B126" s="8"/>
@@ -5044,9 +4939,9 @@
       <c r="E126" s="10"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B127" s="8"/>
@@ -5055,9 +4950,9 @@
       <c r="E127" s="10"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B128" s="8"/>
@@ -5066,9 +4961,9 @@
       <c r="E128" s="10"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B129" s="8"/>
@@ -5077,9 +4972,9 @@
       <c r="E129" s="10"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B130" s="8"/>
@@ -5088,9 +4983,9 @@
       <c r="E130" s="10"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B131" s="8"/>
@@ -5099,9 +4994,9 @@
       <c r="E131" s="10"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B132" s="8"/>
@@ -5110,9 +5005,9 @@
       <c r="E132" s="10"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B133" s="8"/>
@@ -5121,9 +5016,9 @@
       <c r="E133" s="10"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B134" s="8"/>
@@ -5132,9 +5027,9 @@
       <c r="E134" s="10"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B135" s="8"/>
@@ -5143,9 +5038,9 @@
       <c r="E135" s="10"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B136" s="8"/>
@@ -5154,9 +5049,9 @@
       <c r="E136" s="10"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B137" s="8"/>
@@ -5165,9 +5060,9 @@
       <c r="E137" s="10"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B138" s="8"/>
@@ -5176,9 +5071,9 @@
       <c r="E138" s="10"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B139" s="8"/>
@@ -5187,9 +5082,9 @@
       <c r="E139" s="10"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B140" s="8"/>
@@ -5198,9 +5093,9 @@
       <c r="E140" s="10"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B141" s="8"/>
@@ -5209,9 +5104,9 @@
       <c r="E141" s="10"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B142" s="8"/>
@@ -5220,9 +5115,9 @@
       <c r="E142" s="10"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B143" s="8"/>
@@ -5231,9 +5126,9 @@
       <c r="E143" s="10"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B144" s="8"/>
@@ -5242,9 +5137,9 @@
       <c r="E144" s="10"/>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B145" s="8"/>
@@ -5253,9 +5148,9 @@
       <c r="E145" s="10"/>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B146" s="8"/>
@@ -5264,9 +5159,9 @@
       <c r="E146" s="10"/>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19">
-        <f t="shared" ref="A147:A210" si="3">HYPERLINK(I147, H147)</f>
+        <f t="shared" ref="A147:A210" si="4">HYPERLINK(I147, H147)</f>
         <v>0</v>
       </c>
       <c r="B147" s="8"/>
@@ -5275,9 +5170,9 @@
       <c r="E147" s="10"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B148" s="8"/>
@@ -5286,9 +5181,9 @@
       <c r="E148" s="10"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B149" s="8"/>
@@ -5297,9 +5192,9 @@
       <c r="E149" s="10"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B150" s="8"/>
@@ -5308,9 +5203,9 @@
       <c r="E150" s="10"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B151" s="8"/>
@@ -5319,9 +5214,9 @@
       <c r="E151" s="10"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B152" s="8"/>
@@ -5330,9 +5225,9 @@
       <c r="E152" s="10"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B153" s="8"/>
@@ -5341,9 +5236,9 @@
       <c r="E153" s="10"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B154" s="8"/>
@@ -5352,9 +5247,9 @@
       <c r="E154" s="10"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B155" s="8"/>
@@ -5363,9 +5258,9 @@
       <c r="E155" s="10"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B156" s="8"/>
@@ -5374,9 +5269,9 @@
       <c r="E156" s="10"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B157" s="8"/>
@@ -5385,9 +5280,9 @@
       <c r="E157" s="10"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B158" s="8"/>
@@ -5396,9 +5291,9 @@
       <c r="E158" s="10"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B159" s="8"/>
@@ -5407,9 +5302,9 @@
       <c r="E159" s="10"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B160" s="8"/>
@@ -5418,9 +5313,9 @@
       <c r="E160" s="10"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B161" s="8"/>
@@ -5429,9 +5324,9 @@
       <c r="E161" s="10"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B162" s="8"/>
@@ -5440,9 +5335,9 @@
       <c r="E162" s="10"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B163" s="8"/>
@@ -5451,9 +5346,9 @@
       <c r="E163" s="10"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B164" s="8"/>
@@ -5462,9 +5357,9 @@
       <c r="E164" s="10"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B165" s="8"/>
@@ -5473,9 +5368,9 @@
       <c r="E165" s="10"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B166" s="8"/>
@@ -5484,9 +5379,9 @@
       <c r="E166" s="10"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B167" s="8"/>
@@ -5495,9 +5390,9 @@
       <c r="E167" s="10"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B168" s="8"/>
@@ -5506,9 +5401,9 @@
       <c r="E168" s="10"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B169" s="8"/>
@@ -5517,9 +5412,9 @@
       <c r="E169" s="10"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B170" s="8"/>
@@ -5528,9 +5423,9 @@
       <c r="E170" s="10"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B171" s="8"/>
@@ -5539,9 +5434,9 @@
       <c r="E171" s="10"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B172" s="8"/>
@@ -5550,9 +5445,9 @@
       <c r="E172" s="10"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B173" s="8"/>
@@ -5561,9 +5456,9 @@
       <c r="E173" s="10"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B174" s="8"/>
@@ -5572,9 +5467,9 @@
       <c r="E174" s="10"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B175" s="8"/>
@@ -5583,9 +5478,9 @@
       <c r="E175" s="10"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B176" s="8"/>
@@ -5594,9 +5489,9 @@
       <c r="E176" s="10"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B177" s="8"/>
@@ -5605,9 +5500,9 @@
       <c r="E177" s="10"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B178" s="8"/>
@@ -5616,9 +5511,9 @@
       <c r="E178" s="10"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B179" s="8"/>
@@ -5627,9 +5522,9 @@
       <c r="E179" s="10"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B180" s="8"/>
@@ -5638,9 +5533,9 @@
       <c r="E180" s="10"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B181" s="8"/>
@@ -5649,9 +5544,9 @@
       <c r="E181" s="10"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B182" s="8"/>
@@ -5660,9 +5555,9 @@
       <c r="E182" s="10"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B183" s="8"/>
@@ -5671,9 +5566,9 @@
       <c r="E183" s="10"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B184" s="8"/>
@@ -5682,9 +5577,9 @@
       <c r="E184" s="10"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B185" s="8"/>
@@ -5693,9 +5588,9 @@
       <c r="E185" s="10"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B186" s="8"/>
@@ -5704,9 +5599,9 @@
       <c r="E186" s="10"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B187" s="8"/>
@@ -5715,9 +5610,9 @@
       <c r="E187" s="10"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B188" s="8"/>
@@ -5726,9 +5621,9 @@
       <c r="E188" s="10"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B189" s="8"/>
@@ -5737,9 +5632,9 @@
       <c r="E189" s="10"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B190" s="8"/>
@@ -5748,9 +5643,9 @@
       <c r="E190" s="10"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B191" s="8"/>
@@ -5759,9 +5654,9 @@
       <c r="E191" s="10"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B192" s="8"/>
@@ -5770,9 +5665,9 @@
       <c r="E192" s="10"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B193" s="8"/>
@@ -5781,9 +5676,9 @@
       <c r="E193" s="10"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B194" s="8"/>
@@ -5792,9 +5687,9 @@
       <c r="E194" s="10"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B195" s="8"/>
@@ -5803,9 +5698,9 @@
       <c r="E195" s="10"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B196" s="8"/>
@@ -5814,9 +5709,9 @@
       <c r="E196" s="10"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B197" s="8"/>
@@ -5825,9 +5720,9 @@
       <c r="E197" s="10"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B198" s="8"/>
@@ -5836,9 +5731,9 @@
       <c r="E198" s="10"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B199" s="8"/>
@@ -5847,9 +5742,9 @@
       <c r="E199" s="10"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B200" s="8"/>
@@ -5858,9 +5753,9 @@
       <c r="E200" s="10"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B201" s="8"/>
@@ -5869,9 +5764,9 @@
       <c r="E201" s="10"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B202" s="8"/>
@@ -5880,9 +5775,9 @@
       <c r="E202" s="10"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B203" s="8"/>
@@ -5891,9 +5786,9 @@
       <c r="E203" s="10"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B204" s="8"/>
@@ -5902,9 +5797,9 @@
       <c r="E204" s="10"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B205" s="8"/>
@@ -5913,9 +5808,9 @@
       <c r="E205" s="10"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B206" s="8"/>
@@ -5924,9 +5819,9 @@
       <c r="E206" s="10"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B207" s="8"/>
@@ -5935,9 +5830,9 @@
       <c r="E207" s="10"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B208" s="8"/>
@@ -5946,9 +5841,9 @@
       <c r="E208" s="10"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B209" s="8"/>
@@ -5957,9 +5852,9 @@
       <c r="E209" s="10"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B210" s="8"/>
@@ -5968,9 +5863,9 @@
       <c r="E210" s="10"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19">
-        <f t="shared" ref="A211:A227" si="4">HYPERLINK(I211, H211)</f>
+        <f t="shared" ref="A211:A227" si="5">HYPERLINK(I211, H211)</f>
         <v>0</v>
       </c>
       <c r="B211" s="8"/>
@@ -5979,9 +5874,9 @@
       <c r="E211" s="10"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B212" s="8"/>
@@ -5990,9 +5885,9 @@
       <c r="E212" s="10"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B213" s="8"/>
@@ -6001,9 +5896,9 @@
       <c r="E213" s="10"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B214" s="8"/>
@@ -6012,9 +5907,9 @@
       <c r="E214" s="10"/>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B215" s="8"/>
@@ -6023,9 +5918,9 @@
       <c r="E215" s="10"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B216" s="8"/>
@@ -6034,9 +5929,9 @@
       <c r="E216" s="10"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B217" s="8"/>
@@ -6045,9 +5940,9 @@
       <c r="E217" s="10"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B218" s="8"/>
@@ -6056,9 +5951,9 @@
       <c r="E218" s="10"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B219" s="8"/>
@@ -6067,9 +5962,9 @@
       <c r="E219" s="10"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B220" s="8"/>
@@ -6078,9 +5973,9 @@
       <c r="E220" s="10"/>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B221" s="8"/>
@@ -6089,9 +5984,9 @@
       <c r="E221" s="10"/>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B222" s="8"/>
@@ -6100,9 +5995,9 @@
       <c r="E222" s="10"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B223" s="8"/>
@@ -6111,9 +6006,9 @@
       <c r="E223" s="10"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B224" s="8"/>
@@ -6122,9 +6017,9 @@
       <c r="E224" s="10"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B225" s="8"/>
@@ -6133,9 +6028,9 @@
       <c r="E225" s="10"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B226" s="8"/>
@@ -6144,9 +6039,9 @@
       <c r="E226" s="10"/>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B227" s="8"/>
@@ -6155,108 +6050,108 @@
       <c r="E227" s="10"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="C228" s="12"/>
       <c r="F228" s="21"/>
     </row>
-    <row r="229" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="C229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="C230" s="12"/>
     </row>
-    <row r="231" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="C231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="C232" s="12"/>
     </row>
-    <row r="233" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="C233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="C234" s="12"/>
     </row>
-    <row r="235" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="C235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="C236" s="12"/>
     </row>
-    <row r="237" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="C237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="C238" s="12"/>
     </row>
-    <row r="239" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="C239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="C240" s="12"/>
     </row>
-    <row r="241" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="C241" s="12"/>
     </row>
-    <row r="242" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="C242" s="12"/>
     </row>
-    <row r="243" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="C243" s="12"/>
     </row>
-    <row r="244" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="C244" s="12"/>
     </row>
-    <row r="245" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="C245" s="12"/>
     </row>
-    <row r="246" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="C246" s="12"/>
     </row>
-    <row r="247" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="C247" s="12"/>
     </row>
-    <row r="248" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="C248" s="12"/>
     </row>
-    <row r="249" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="C249" s="12"/>
     </row>
-    <row r="250" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="C250" s="12"/>
     </row>
-    <row r="251" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="C251" s="12"/>
     </row>
-    <row r="252" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="C252" s="12"/>
     </row>
-    <row r="253" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="C253" s="14"/>
     </row>
@@ -6311,29 +6206,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42AD972-1119-4720-A447-D0F30115ACD0}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="166.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" style="5" customWidth="1"/>
-    <col min="12" max="15" width="8.7265625" style="5"/>
-    <col min="16" max="16" width="15.26953125" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="27.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="166.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="5" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="5"/>
+    <col min="16" max="16" width="15.28515625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6368,7 +6263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <f t="shared" ref="A2:A6" si="0">HYPERLINK(I2, H2)</f>
         <v>0</v>
@@ -6380,7 +6275,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6395,7 +6290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6409,7 +6304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6423,7 +6318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6434,9 +6329,9 @@
       <c r="E6" s="10"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
-        <f>HYPERLINK(I7, H7)</f>
+        <f t="shared" ref="A7:A18" si="1">HYPERLINK(I7, H7)</f>
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
@@ -6445,9 +6340,9 @@
       <c r="E7" s="10"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
-        <f>HYPERLINK(I8, H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
@@ -6457,9 +6352,9 @@
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
-        <f>HYPERLINK(I9, H9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
@@ -6468,9 +6363,9 @@
       <c r="E9" s="10"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f>HYPERLINK(I10, H10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
@@ -6479,9 +6374,9 @@
       <c r="E10" s="10"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
-        <f>HYPERLINK(I11, H11)</f>
+    <row r="11" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
@@ -6490,9 +6385,9 @@
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
-        <f>HYPERLINK(I12, H12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B12" s="8"/>
@@ -6501,9 +6396,9 @@
       <c r="E12" s="10"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <f>HYPERLINK(I13, H13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B13" s="8"/>
@@ -6512,9 +6407,9 @@
       <c r="E13" s="10"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <f>HYPERLINK(I14, H14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B14" s="8"/>
@@ -6523,9 +6418,9 @@
       <c r="E14" s="10"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <f>HYPERLINK(I15, H15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
@@ -6534,9 +6429,9 @@
       <c r="E15" s="10"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <f>HYPERLINK(I16, H16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B16" s="8"/>
@@ -6545,9 +6440,9 @@
       <c r="E16" s="10"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <f>HYPERLINK(I17, H17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B17" s="8"/>
@@ -6556,9 +6451,9 @@
       <c r="E17" s="10"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <f>HYPERLINK(I18, H18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B18" s="8"/>
@@ -6567,9 +6462,9 @@
       <c r="E18" s="10"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <f t="shared" ref="A19:A82" si="1">HYPERLINK(I19, H19)</f>
+        <f t="shared" ref="A19:A82" si="2">HYPERLINK(I19, H19)</f>
         <v>0</v>
       </c>
       <c r="B19" s="8"/>
@@ -6578,9 +6473,9 @@
       <c r="E19" s="10"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B20" s="8"/>
@@ -6589,9 +6484,9 @@
       <c r="E20" s="10"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B21" s="8"/>
@@ -6600,9 +6495,9 @@
       <c r="E21" s="10"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B22" s="8"/>
@@ -6611,9 +6506,9 @@
       <c r="E22" s="10"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B23" s="8"/>
@@ -6622,9 +6517,9 @@
       <c r="E23" s="10"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B24" s="8"/>
@@ -6633,9 +6528,9 @@
       <c r="E24" s="10"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B25" s="8"/>
@@ -6644,9 +6539,9 @@
       <c r="E25" s="10"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B26" s="8"/>
@@ -6655,9 +6550,9 @@
       <c r="E26" s="10"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B27" s="8"/>
@@ -6666,9 +6561,9 @@
       <c r="E27" s="10"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B28" s="8"/>
@@ -6677,9 +6572,9 @@
       <c r="E28" s="10"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B29" s="8"/>
@@ -6688,9 +6583,9 @@
       <c r="E29" s="10"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B30" s="8"/>
@@ -6699,9 +6594,9 @@
       <c r="E30" s="10"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B31" s="8"/>
@@ -6710,9 +6605,9 @@
       <c r="E31" s="10"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B32" s="8"/>
@@ -6721,9 +6616,9 @@
       <c r="E32" s="10"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B33" s="8"/>
@@ -6732,9 +6627,9 @@
       <c r="E33" s="10"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B34" s="8"/>
@@ -6743,9 +6638,9 @@
       <c r="E34" s="10"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B35" s="8"/>
@@ -6754,9 +6649,9 @@
       <c r="E35" s="10"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B36" s="8"/>
@@ -6765,9 +6660,9 @@
       <c r="E36" s="10"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B37" s="8"/>
@@ -6776,9 +6671,9 @@
       <c r="E37" s="10"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B38" s="8"/>
@@ -6787,9 +6682,9 @@
       <c r="E38" s="10"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B39" s="8"/>
@@ -6798,9 +6693,9 @@
       <c r="E39" s="10"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B40" s="8"/>
@@ -6809,9 +6704,9 @@
       <c r="E40" s="10"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B41" s="8"/>
@@ -6820,9 +6715,9 @@
       <c r="E41" s="10"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B42" s="8"/>
@@ -6831,9 +6726,9 @@
       <c r="E42" s="10"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B43" s="8"/>
@@ -6842,9 +6737,9 @@
       <c r="E43" s="10"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B44" s="8"/>
@@ -6853,9 +6748,9 @@
       <c r="E44" s="10"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B45" s="8"/>
@@ -6864,9 +6759,9 @@
       <c r="E45" s="10"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B46" s="8"/>
@@ -6875,9 +6770,9 @@
       <c r="E46" s="10"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B47" s="8"/>
@@ -6886,9 +6781,9 @@
       <c r="E47" s="10"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B48" s="8"/>
@@ -6897,9 +6792,9 @@
       <c r="E48" s="10"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B49" s="8"/>
@@ -6908,9 +6803,9 @@
       <c r="E49" s="10"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B50" s="8"/>
@@ -6919,9 +6814,9 @@
       <c r="E50" s="10"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B51" s="8"/>
@@ -6930,9 +6825,9 @@
       <c r="E51" s="10"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B52" s="8"/>
@@ -6941,9 +6836,9 @@
       <c r="E52" s="10"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B53" s="8"/>
@@ -6952,9 +6847,9 @@
       <c r="E53" s="10"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B54" s="8"/>
@@ -6963,9 +6858,9 @@
       <c r="E54" s="10"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B55" s="8"/>
@@ -6974,9 +6869,9 @@
       <c r="E55" s="10"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B56" s="8"/>
@@ -6985,9 +6880,9 @@
       <c r="E56" s="10"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B57" s="8"/>
@@ -6996,9 +6891,9 @@
       <c r="E57" s="10"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B58" s="8"/>
@@ -7007,9 +6902,9 @@
       <c r="E58" s="10"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B59" s="8"/>
@@ -7018,9 +6913,9 @@
       <c r="E59" s="10"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B60" s="8"/>
@@ -7029,9 +6924,9 @@
       <c r="E60" s="10"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B61" s="8"/>
@@ -7040,9 +6935,9 @@
       <c r="E61" s="10"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B62" s="8"/>
@@ -7051,9 +6946,9 @@
       <c r="E62" s="10"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B63" s="8"/>
@@ -7062,9 +6957,9 @@
       <c r="E63" s="10"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B64" s="8"/>
@@ -7073,9 +6968,9 @@
       <c r="E64" s="10"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B65" s="8"/>
@@ -7084,9 +6979,9 @@
       <c r="E65" s="10"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B66" s="8"/>
@@ -7095,9 +6990,9 @@
       <c r="E66" s="10"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B67" s="8"/>
@@ -7106,9 +7001,9 @@
       <c r="E67" s="10"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B68" s="8"/>
@@ -7117,9 +7012,9 @@
       <c r="E68" s="10"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B69" s="8"/>
@@ -7128,9 +7023,9 @@
       <c r="E69" s="10"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B70" s="8"/>
@@ -7139,9 +7034,9 @@
       <c r="E70" s="10"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B71" s="8"/>
@@ -7150,9 +7045,9 @@
       <c r="E71" s="10"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B72" s="8"/>
@@ -7161,9 +7056,9 @@
       <c r="E72" s="10"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B73" s="8"/>
@@ -7172,9 +7067,9 @@
       <c r="E73" s="10"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B74" s="8"/>
@@ -7183,9 +7078,9 @@
       <c r="E74" s="10"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B75" s="8"/>
@@ -7194,9 +7089,9 @@
       <c r="E75" s="10"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B76" s="8"/>
@@ -7205,9 +7100,9 @@
       <c r="E76" s="10"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B77" s="8"/>
@@ -7216,9 +7111,9 @@
       <c r="E77" s="10"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B78" s="8"/>
@@ -7227,9 +7122,9 @@
       <c r="E78" s="10"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B79" s="8"/>
@@ -7238,9 +7133,9 @@
       <c r="E79" s="10"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B80" s="8"/>
@@ -7249,9 +7144,9 @@
       <c r="E80" s="10"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B81" s="8"/>
@@ -7260,9 +7155,9 @@
       <c r="E81" s="10"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B82" s="8"/>
@@ -7271,9 +7166,9 @@
       <c r="E82" s="10"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
-        <f t="shared" ref="A83:A146" si="2">HYPERLINK(I83, H83)</f>
+        <f t="shared" ref="A83:A146" si="3">HYPERLINK(I83, H83)</f>
         <v>0</v>
       </c>
       <c r="B83" s="8"/>
@@ -7282,9 +7177,9 @@
       <c r="E83" s="10"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B84" s="8"/>
@@ -7293,9 +7188,9 @@
       <c r="E84" s="10"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B85" s="8"/>
@@ -7304,9 +7199,9 @@
       <c r="E85" s="10"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B86" s="8"/>
@@ -7315,9 +7210,9 @@
       <c r="E86" s="10"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B87" s="8"/>
@@ -7326,9 +7221,9 @@
       <c r="E87" s="10"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B88" s="8"/>
@@ -7337,9 +7232,9 @@
       <c r="E88" s="10"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B89" s="8"/>
@@ -7348,9 +7243,9 @@
       <c r="E89" s="10"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B90" s="8"/>
@@ -7359,9 +7254,9 @@
       <c r="E90" s="10"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B91" s="8"/>
@@ -7370,9 +7265,9 @@
       <c r="E91" s="10"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B92" s="8"/>
@@ -7381,9 +7276,9 @@
       <c r="E92" s="10"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B93" s="8"/>
@@ -7392,9 +7287,9 @@
       <c r="E93" s="10"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B94" s="8"/>
@@ -7403,9 +7298,9 @@
       <c r="E94" s="10"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B95" s="8"/>
@@ -7414,9 +7309,9 @@
       <c r="E95" s="10"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B96" s="8"/>
@@ -7425,9 +7320,9 @@
       <c r="E96" s="10"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B97" s="8"/>
@@ -7436,9 +7331,9 @@
       <c r="E97" s="10"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B98" s="8"/>
@@ -7447,9 +7342,9 @@
       <c r="E98" s="10"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B99" s="8"/>
@@ -7458,9 +7353,9 @@
       <c r="E99" s="10"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B100" s="8"/>
@@ -7469,9 +7364,9 @@
       <c r="E100" s="10"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B101" s="8"/>
@@ -7480,9 +7375,9 @@
       <c r="E101" s="10"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B102" s="8"/>
@@ -7491,9 +7386,9 @@
       <c r="E102" s="10"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B103" s="8"/>
@@ -7502,9 +7397,9 @@
       <c r="E103" s="10"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B104" s="8"/>
@@ -7513,9 +7408,9 @@
       <c r="E104" s="10"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B105" s="8"/>
@@ -7524,9 +7419,9 @@
       <c r="E105" s="10"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B106" s="8"/>
@@ -7535,9 +7430,9 @@
       <c r="E106" s="10"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B107" s="8"/>
@@ -7546,9 +7441,9 @@
       <c r="E107" s="10"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B108" s="8"/>
@@ -7557,9 +7452,9 @@
       <c r="E108" s="10"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B109" s="8"/>
@@ -7568,9 +7463,9 @@
       <c r="E109" s="10"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B110" s="8"/>
@@ -7579,9 +7474,9 @@
       <c r="E110" s="10"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B111" s="8"/>
@@ -7590,9 +7485,9 @@
       <c r="E111" s="10"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B112" s="8"/>
@@ -7601,9 +7496,9 @@
       <c r="E112" s="10"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B113" s="8"/>
@@ -7612,9 +7507,9 @@
       <c r="E113" s="10"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B114" s="8"/>
@@ -7623,9 +7518,9 @@
       <c r="E114" s="10"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B115" s="8"/>
@@ -7634,9 +7529,9 @@
       <c r="E115" s="10"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B116" s="8"/>
@@ -7645,9 +7540,9 @@
       <c r="E116" s="10"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B117" s="8"/>
@@ -7656,9 +7551,9 @@
       <c r="E117" s="10"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B118" s="8"/>
@@ -7667,9 +7562,9 @@
       <c r="E118" s="10"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B119" s="8"/>
@@ -7678,9 +7573,9 @@
       <c r="E119" s="10"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B120" s="8"/>
@@ -7689,9 +7584,9 @@
       <c r="E120" s="10"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B121" s="8"/>
@@ -7700,9 +7595,9 @@
       <c r="E121" s="10"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B122" s="8"/>
@@ -7711,9 +7606,9 @@
       <c r="E122" s="10"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B123" s="8"/>
@@ -7722,9 +7617,9 @@
       <c r="E123" s="10"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B124" s="8"/>
@@ -7733,9 +7628,9 @@
       <c r="E124" s="10"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B125" s="8"/>
@@ -7744,9 +7639,9 @@
       <c r="E125" s="10"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B126" s="8"/>
@@ -7755,9 +7650,9 @@
       <c r="E126" s="10"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B127" s="8"/>
@@ -7766,9 +7661,9 @@
       <c r="E127" s="10"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B128" s="8"/>
@@ -7777,9 +7672,9 @@
       <c r="E128" s="10"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B129" s="8"/>
@@ -7788,9 +7683,9 @@
       <c r="E129" s="10"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B130" s="8"/>
@@ -7799,9 +7694,9 @@
       <c r="E130" s="10"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B131" s="8"/>
@@ -7810,9 +7705,9 @@
       <c r="E131" s="10"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B132" s="8"/>
@@ -7821,9 +7716,9 @@
       <c r="E132" s="10"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B133" s="8"/>
@@ -7832,9 +7727,9 @@
       <c r="E133" s="10"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B134" s="8"/>
@@ -7843,9 +7738,9 @@
       <c r="E134" s="10"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B135" s="8"/>
@@ -7854,9 +7749,9 @@
       <c r="E135" s="10"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B136" s="8"/>
@@ -7865,9 +7760,9 @@
       <c r="E136" s="10"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B137" s="8"/>
@@ -7876,9 +7771,9 @@
       <c r="E137" s="10"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B138" s="8"/>
@@ -7887,9 +7782,9 @@
       <c r="E138" s="10"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B139" s="8"/>
@@ -7898,9 +7793,9 @@
       <c r="E139" s="10"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B140" s="8"/>
@@ -7909,9 +7804,9 @@
       <c r="E140" s="10"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B141" s="8"/>
@@ -7920,9 +7815,9 @@
       <c r="E141" s="10"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B142" s="8"/>
@@ -7931,9 +7826,9 @@
       <c r="E142" s="10"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B143" s="8"/>
@@ -7942,9 +7837,9 @@
       <c r="E143" s="10"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B144" s="8"/>
@@ -7953,9 +7848,9 @@
       <c r="E144" s="10"/>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B145" s="8"/>
@@ -7964,9 +7859,9 @@
       <c r="E145" s="10"/>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B146" s="8"/>
@@ -7975,9 +7870,9 @@
       <c r="E146" s="10"/>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19">
-        <f t="shared" ref="A147:A210" si="3">HYPERLINK(I147, H147)</f>
+        <f t="shared" ref="A147:A210" si="4">HYPERLINK(I147, H147)</f>
         <v>0</v>
       </c>
       <c r="B147" s="8"/>
@@ -7986,9 +7881,9 @@
       <c r="E147" s="10"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B148" s="8"/>
@@ -7997,9 +7892,9 @@
       <c r="E148" s="10"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B149" s="8"/>
@@ -8008,9 +7903,9 @@
       <c r="E149" s="10"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B150" s="8"/>
@@ -8019,9 +7914,9 @@
       <c r="E150" s="10"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B151" s="8"/>
@@ -8030,9 +7925,9 @@
       <c r="E151" s="10"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B152" s="8"/>
@@ -8041,9 +7936,9 @@
       <c r="E152" s="10"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B153" s="8"/>
@@ -8052,9 +7947,9 @@
       <c r="E153" s="10"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B154" s="8"/>
@@ -8063,9 +7958,9 @@
       <c r="E154" s="10"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B155" s="8"/>
@@ -8074,9 +7969,9 @@
       <c r="E155" s="10"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B156" s="8"/>
@@ -8085,9 +7980,9 @@
       <c r="E156" s="10"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B157" s="8"/>
@@ -8096,9 +7991,9 @@
       <c r="E157" s="10"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B158" s="8"/>
@@ -8107,9 +8002,9 @@
       <c r="E158" s="10"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B159" s="8"/>
@@ -8118,9 +8013,9 @@
       <c r="E159" s="10"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B160" s="8"/>
@@ -8129,9 +8024,9 @@
       <c r="E160" s="10"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B161" s="8"/>
@@ -8140,9 +8035,9 @@
       <c r="E161" s="10"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B162" s="8"/>
@@ -8151,9 +8046,9 @@
       <c r="E162" s="10"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B163" s="8"/>
@@ -8162,9 +8057,9 @@
       <c r="E163" s="10"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B164" s="8"/>
@@ -8173,9 +8068,9 @@
       <c r="E164" s="10"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B165" s="8"/>
@@ -8184,9 +8079,9 @@
       <c r="E165" s="10"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B166" s="8"/>
@@ -8195,9 +8090,9 @@
       <c r="E166" s="10"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B167" s="8"/>
@@ -8206,9 +8101,9 @@
       <c r="E167" s="10"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B168" s="8"/>
@@ -8217,9 +8112,9 @@
       <c r="E168" s="10"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B169" s="8"/>
@@ -8228,9 +8123,9 @@
       <c r="E169" s="10"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B170" s="8"/>
@@ -8239,9 +8134,9 @@
       <c r="E170" s="10"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B171" s="8"/>
@@ -8250,9 +8145,9 @@
       <c r="E171" s="10"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B172" s="8"/>
@@ -8261,9 +8156,9 @@
       <c r="E172" s="10"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B173" s="8"/>
@@ -8272,9 +8167,9 @@
       <c r="E173" s="10"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B174" s="8"/>
@@ -8283,9 +8178,9 @@
       <c r="E174" s="10"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B175" s="8"/>
@@ -8294,9 +8189,9 @@
       <c r="E175" s="10"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B176" s="8"/>
@@ -8305,9 +8200,9 @@
       <c r="E176" s="10"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B177" s="8"/>
@@ -8316,9 +8211,9 @@
       <c r="E177" s="10"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B178" s="8"/>
@@ -8327,9 +8222,9 @@
       <c r="E178" s="10"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B179" s="8"/>
@@ -8338,9 +8233,9 @@
       <c r="E179" s="10"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B180" s="8"/>
@@ -8349,9 +8244,9 @@
       <c r="E180" s="10"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B181" s="8"/>
@@ -8360,9 +8255,9 @@
       <c r="E181" s="10"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B182" s="8"/>
@@ -8371,9 +8266,9 @@
       <c r="E182" s="10"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B183" s="8"/>
@@ -8382,9 +8277,9 @@
       <c r="E183" s="10"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B184" s="8"/>
@@ -8393,9 +8288,9 @@
       <c r="E184" s="10"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B185" s="8"/>
@@ -8404,9 +8299,9 @@
       <c r="E185" s="10"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B186" s="8"/>
@@ -8415,9 +8310,9 @@
       <c r="E186" s="10"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B187" s="8"/>
@@ -8426,9 +8321,9 @@
       <c r="E187" s="10"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B188" s="8"/>
@@ -8437,9 +8332,9 @@
       <c r="E188" s="10"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B189" s="8"/>
@@ -8448,9 +8343,9 @@
       <c r="E189" s="10"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B190" s="8"/>
@@ -8459,9 +8354,9 @@
       <c r="E190" s="10"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B191" s="8"/>
@@ -8470,9 +8365,9 @@
       <c r="E191" s="10"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B192" s="8"/>
@@ -8481,9 +8376,9 @@
       <c r="E192" s="10"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B193" s="8"/>
@@ -8492,9 +8387,9 @@
       <c r="E193" s="10"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B194" s="8"/>
@@ -8503,9 +8398,9 @@
       <c r="E194" s="10"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B195" s="8"/>
@@ -8514,9 +8409,9 @@
       <c r="E195" s="10"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B196" s="8"/>
@@ -8525,9 +8420,9 @@
       <c r="E196" s="10"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B197" s="8"/>
@@ -8536,9 +8431,9 @@
       <c r="E197" s="10"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B198" s="8"/>
@@ -8547,9 +8442,9 @@
       <c r="E198" s="10"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B199" s="8"/>
@@ -8558,9 +8453,9 @@
       <c r="E199" s="10"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B200" s="8"/>
@@ -8569,9 +8464,9 @@
       <c r="E200" s="10"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B201" s="8"/>
@@ -8580,9 +8475,9 @@
       <c r="E201" s="10"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B202" s="8"/>
@@ -8591,9 +8486,9 @@
       <c r="E202" s="10"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B203" s="8"/>
@@ -8602,9 +8497,9 @@
       <c r="E203" s="10"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B204" s="8"/>
@@ -8613,9 +8508,9 @@
       <c r="E204" s="10"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B205" s="8"/>
@@ -8624,9 +8519,9 @@
       <c r="E205" s="10"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B206" s="8"/>
@@ -8635,9 +8530,9 @@
       <c r="E206" s="10"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B207" s="8"/>
@@ -8646,9 +8541,9 @@
       <c r="E207" s="10"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B208" s="8"/>
@@ -8657,9 +8552,9 @@
       <c r="E208" s="10"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B209" s="8"/>
@@ -8668,9 +8563,9 @@
       <c r="E209" s="10"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B210" s="8"/>
@@ -8679,9 +8574,9 @@
       <c r="E210" s="10"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19">
-        <f t="shared" ref="A211:A227" si="4">HYPERLINK(I211, H211)</f>
+        <f t="shared" ref="A211:A227" si="5">HYPERLINK(I211, H211)</f>
         <v>0</v>
       </c>
       <c r="B211" s="8"/>
@@ -8690,9 +8585,9 @@
       <c r="E211" s="10"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B212" s="8"/>
@@ -8701,9 +8596,9 @@
       <c r="E212" s="10"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B213" s="8"/>
@@ -8712,9 +8607,9 @@
       <c r="E213" s="10"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B214" s="8"/>
@@ -8723,9 +8618,9 @@
       <c r="E214" s="10"/>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B215" s="8"/>
@@ -8734,9 +8629,9 @@
       <c r="E215" s="10"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B216" s="8"/>
@@ -8745,9 +8640,9 @@
       <c r="E216" s="10"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B217" s="8"/>
@@ -8756,9 +8651,9 @@
       <c r="E217" s="10"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B218" s="8"/>
@@ -8767,9 +8662,9 @@
       <c r="E218" s="10"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B219" s="8"/>
@@ -8778,9 +8673,9 @@
       <c r="E219" s="10"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B220" s="8"/>
@@ -8789,9 +8684,9 @@
       <c r="E220" s="10"/>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B221" s="8"/>
@@ -8800,9 +8695,9 @@
       <c r="E221" s="10"/>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B222" s="8"/>
@@ -8811,9 +8706,9 @@
       <c r="E222" s="10"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B223" s="8"/>
@@ -8822,9 +8717,9 @@
       <c r="E223" s="10"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B224" s="8"/>
@@ -8833,9 +8728,9 @@
       <c r="E224" s="10"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B225" s="8"/>
@@ -8844,9 +8739,9 @@
       <c r="E225" s="10"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B226" s="8"/>
@@ -8855,9 +8750,9 @@
       <c r="E226" s="10"/>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B227" s="8"/>
@@ -8866,108 +8761,108 @@
       <c r="E227" s="10"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="C228" s="12"/>
       <c r="F228" s="21"/>
     </row>
-    <row r="229" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="C229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="C230" s="12"/>
     </row>
-    <row r="231" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="C231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="C232" s="12"/>
     </row>
-    <row r="233" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="C233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="C234" s="12"/>
     </row>
-    <row r="235" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="C235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="C236" s="12"/>
     </row>
-    <row r="237" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="C237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="C238" s="12"/>
     </row>
-    <row r="239" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="C239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="C240" s="12"/>
     </row>
-    <row r="241" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="C241" s="12"/>
     </row>
-    <row r="242" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="C242" s="12"/>
     </row>
-    <row r="243" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="C243" s="12"/>
     </row>
-    <row r="244" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="C244" s="12"/>
     </row>
-    <row r="245" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="C245" s="12"/>
     </row>
-    <row r="246" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="C246" s="12"/>
     </row>
-    <row r="247" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="C247" s="12"/>
     </row>
-    <row r="248" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="C248" s="12"/>
     </row>
-    <row r="249" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="C249" s="12"/>
     </row>
-    <row r="250" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="C250" s="12"/>
     </row>
-    <row r="251" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="C251" s="12"/>
     </row>
-    <row r="252" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="C252" s="12"/>
     </row>
-    <row r="253" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="C253" s="14"/>
     </row>

--- a/STABLE CODE/Jupyter/testfile.xlsx
+++ b/STABLE CODE/Jupyter/testfile.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD38F19-FB7C-45D4-802D-64A92451C5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC06F0-F188-4DE9-A1E3-70B39E3AE21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Just Received" sheetId="1" r:id="rId1"/>
     <sheet name="Shipped" sheetId="2" r:id="rId2"/>
     <sheet name="Billed" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Just Received'!$A$1:$P$253</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>Order #</t>
   </si>
@@ -78,6 +81,168 @@
   <si>
     <t>Previous Print  &gt;&gt;&gt;</t>
   </si>
+  <si>
+    <t>Teknion LimitedWH=030 Doors</t>
+  </si>
+  <si>
+    <t>Purolator</t>
+  </si>
+  <si>
+    <t>7183343-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\single_pdfs_10.pdf</t>
+  </si>
+  <si>
+    <t>Brampton Brick Ltd225</t>
+  </si>
+  <si>
+    <t>7183379-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183379-00.pdf</t>
+  </si>
+  <si>
+    <t>Pepsi BottlingDelta747 Chester</t>
+  </si>
+  <si>
+    <t>JN Freightwa</t>
+  </si>
+  <si>
+    <t>7183382-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183382-00.pdf</t>
+  </si>
+  <si>
+    <t>PF Resolu Canada</t>
+  </si>
+  <si>
+    <t>Dicom</t>
+  </si>
+  <si>
+    <t>7183404-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183404-00.pdf</t>
+  </si>
+  <si>
+    <t>Atrahan Transformation Inc.860</t>
+  </si>
+  <si>
+    <t>Demark</t>
+  </si>
+  <si>
+    <t>7183409-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183409-00.pdf</t>
+  </si>
+  <si>
+    <t>Shawinigan Aluminium Inc.1250</t>
+  </si>
+  <si>
+    <t>7183439-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183439-00.pdf</t>
+  </si>
+  <si>
+    <t>Kalesnikoff Lumber Co</t>
+  </si>
+  <si>
+    <t>Overland Wes</t>
+  </si>
+  <si>
+    <t>7183441-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183441-00.pdf</t>
+  </si>
+  <si>
+    <t>Rayonier A.M. Canada</t>
+  </si>
+  <si>
+    <t>Demark North</t>
+  </si>
+  <si>
+    <t>7183442-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183442-00.pdf</t>
+  </si>
+  <si>
+    <t>Novelis IncWilliamson Plant</t>
+  </si>
+  <si>
+    <t>AM Transport</t>
+  </si>
+  <si>
+    <t>7183454-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183454-00.pdf</t>
+  </si>
+  <si>
+    <t>West Fraser MillsHinton</t>
+  </si>
+  <si>
+    <t>Loomis Grund</t>
+  </si>
+  <si>
+    <t>7183457-00</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183457-00.pdf</t>
+  </si>
+  <si>
+    <t>Moved back to 'Shipped'</t>
+  </si>
+  <si>
+    <t>Moved back to 'Just Received'</t>
+  </si>
+  <si>
+    <t>Moved to 'Shipped'</t>
+  </si>
+  <si>
+    <t>7183343-00_reprint</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00_reprint.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\7183343-00.pdf</t>
+  </si>
+  <si>
+    <t>7183343-00_reprint_reprint</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00_reprint_reprint.pdf</t>
+  </si>
+  <si>
+    <t>7183379-00_reprint</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183379-00_reprint.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\7183379-00.pdf</t>
+  </si>
+  <si>
+    <t>7183409-00_reprint</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183409-00_reprint.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\7183409-00.pdf</t>
+  </si>
+  <si>
+    <t>Moved to 'Billed'</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +327,12 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,10 +960,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -848,156 +1021,351 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="19" t="str">
         <f t="shared" ref="A2:A13" si="0">HYPERLINK(I2, H2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10"/>
+        <v>7183343-00</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10">
+        <v>44246.5186703125</v>
+      </c>
       <c r="F2" s="18"/>
       <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="10"/>
+        <v>7183379-00</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44246.518670543985</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="8"/>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="P3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="8"/>
+        <v>7183343-00_reprint</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44249.572577083331</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00.pdf", "7183343-00")</f>
+        <v>7183343-00</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="P4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+    <row r="5" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10"/>
+        <v>7183404-00</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44246.518671053243</v>
+      </c>
       <c r="F5" s="18"/>
       <c r="G5" s="8"/>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="P5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+    <row r="6" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10"/>
+        <v>7183409-00</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44246.518671284721</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="18"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="8" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
+        <v>7183441-00</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44246.518671724538</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10"/>
+        <v>7183442-00</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44246.518671956015</v>
+      </c>
       <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="10"/>
+        <v>7183454-00</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44246.518672245373</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
+      <c r="H10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="8"/>
+        <v>7183343-00_reprint_reprint</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44249.57305890046</v>
+      </c>
+      <c r="F11" s="18" t="str">
+        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00_reprint.pdf", "7183343-00_reprint")</f>
+        <v>7183343-00_reprint</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7183379-00_reprint</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44249.57396037037</v>
+      </c>
+      <c r="F12" s="18" t="str">
+        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183379-00.pdf", "7183379-00")</f>
+        <v>7183379-00</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <f t="shared" ref="A14:A18" si="1">HYPERLINK(I14, H14)</f>
         <v>0</v>
@@ -1009,7 +1377,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1020,7 +1388,7 @@
       <c r="E15" s="10"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1031,7 +1399,7 @@
       <c r="E16" s="10"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1042,7 +1410,7 @@
       <c r="E17" s="10"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1053,7 +1421,7 @@
       <c r="E18" s="10"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f t="shared" ref="A19:A82" si="2">HYPERLINK(I19, H19)</f>
         <v>0</v>
@@ -1064,7 +1432,7 @@
       <c r="E19" s="10"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1075,7 +1443,7 @@
       <c r="E20" s="10"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1086,7 +1454,7 @@
       <c r="E21" s="10"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1097,7 +1465,7 @@
       <c r="E22" s="10"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1108,7 +1476,7 @@
       <c r="E23" s="10"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1119,7 +1487,7 @@
       <c r="E24" s="10"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1130,7 +1498,7 @@
       <c r="E25" s="10"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1141,7 +1509,7 @@
       <c r="E26" s="10"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1152,7 +1520,7 @@
       <c r="E27" s="10"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1163,7 +1531,7 @@
       <c r="E28" s="10"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1174,7 +1542,7 @@
       <c r="E29" s="10"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1185,7 +1553,7 @@
       <c r="E30" s="10"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1196,7 +1564,7 @@
       <c r="E31" s="10"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1207,7 +1575,7 @@
       <c r="E32" s="10"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1218,7 +1586,7 @@
       <c r="E33" s="10"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1229,7 +1597,7 @@
       <c r="E34" s="10"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1240,7 +1608,7 @@
       <c r="E35" s="10"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1251,7 +1619,7 @@
       <c r="E36" s="10"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1262,7 +1630,7 @@
       <c r="E37" s="10"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1273,7 +1641,7 @@
       <c r="E38" s="10"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1284,7 +1652,7 @@
       <c r="E39" s="10"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1295,7 +1663,7 @@
       <c r="E40" s="10"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1306,7 +1674,7 @@
       <c r="E41" s="10"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1317,7 +1685,7 @@
       <c r="E42" s="10"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1328,7 +1696,7 @@
       <c r="E43" s="10"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1339,7 +1707,7 @@
       <c r="E44" s="10"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1350,7 +1718,7 @@
       <c r="E45" s="10"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1361,7 +1729,7 @@
       <c r="E46" s="10"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1372,7 +1740,7 @@
       <c r="E47" s="10"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1383,7 +1751,7 @@
       <c r="E48" s="10"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1394,7 +1762,7 @@
       <c r="E49" s="10"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1405,7 +1773,7 @@
       <c r="E50" s="10"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1416,7 +1784,7 @@
       <c r="E51" s="10"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1427,7 +1795,7 @@
       <c r="E52" s="10"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1438,7 +1806,7 @@
       <c r="E53" s="10"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1449,7 +1817,7 @@
       <c r="E54" s="10"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1460,7 +1828,7 @@
       <c r="E55" s="10"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1471,7 +1839,7 @@
       <c r="E56" s="10"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1482,7 +1850,7 @@
       <c r="E57" s="10"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1493,7 +1861,7 @@
       <c r="E58" s="10"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1504,7 +1872,7 @@
       <c r="E59" s="10"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1515,7 +1883,7 @@
       <c r="E60" s="10"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1526,7 +1894,7 @@
       <c r="E61" s="10"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1537,7 +1905,7 @@
       <c r="E62" s="10"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1548,7 +1916,7 @@
       <c r="E63" s="10"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1559,7 +1927,7 @@
       <c r="E64" s="10"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1570,7 +1938,7 @@
       <c r="E65" s="10"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1581,7 +1949,7 @@
       <c r="E66" s="10"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1592,7 +1960,7 @@
       <c r="E67" s="10"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1603,7 +1971,7 @@
       <c r="E68" s="10"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1614,7 +1982,7 @@
       <c r="E69" s="10"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1625,7 +1993,7 @@
       <c r="E70" s="10"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1636,7 +2004,7 @@
       <c r="E71" s="10"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1647,7 +2015,7 @@
       <c r="E72" s="10"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1658,7 +2026,7 @@
       <c r="E73" s="10"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1669,7 +2037,7 @@
       <c r="E74" s="10"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1680,7 +2048,7 @@
       <c r="E75" s="10"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1691,7 +2059,7 @@
       <c r="E76" s="10"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1702,7 +2070,7 @@
       <c r="E77" s="10"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1713,7 +2081,7 @@
       <c r="E78" s="10"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1724,7 +2092,7 @@
       <c r="E79" s="10"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1735,7 +2103,7 @@
       <c r="E80" s="10"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1746,7 +2114,7 @@
       <c r="E81" s="10"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1757,7 +2125,7 @@
       <c r="E82" s="10"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <f t="shared" ref="A83:A146" si="3">HYPERLINK(I83, H83)</f>
         <v>0</v>
@@ -1768,7 +2136,7 @@
       <c r="E83" s="10"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1779,7 +2147,7 @@
       <c r="E84" s="10"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1790,7 +2158,7 @@
       <c r="E85" s="10"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1801,7 +2169,7 @@
       <c r="E86" s="10"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1812,7 +2180,7 @@
       <c r="E87" s="10"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1823,7 +2191,7 @@
       <c r="E88" s="10"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1834,7 +2202,7 @@
       <c r="E89" s="10"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1845,7 +2213,7 @@
       <c r="E90" s="10"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1856,7 +2224,7 @@
       <c r="E91" s="10"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1867,7 +2235,7 @@
       <c r="E92" s="10"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1878,7 +2246,7 @@
       <c r="E93" s="10"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1889,7 +2257,7 @@
       <c r="E94" s="10"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1900,7 +2268,7 @@
       <c r="E95" s="10"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1911,7 +2279,7 @@
       <c r="E96" s="10"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1922,7 +2290,7 @@
       <c r="E97" s="10"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1933,7 +2301,7 @@
       <c r="E98" s="10"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1944,7 +2312,7 @@
       <c r="E99" s="10"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1955,7 +2323,7 @@
       <c r="E100" s="10"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1966,7 +2334,7 @@
       <c r="E101" s="10"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1977,7 +2345,7 @@
       <c r="E102" s="10"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1988,7 +2356,7 @@
       <c r="E103" s="10"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1999,7 +2367,7 @@
       <c r="E104" s="10"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2010,7 +2378,7 @@
       <c r="E105" s="10"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2021,7 +2389,7 @@
       <c r="E106" s="10"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2032,7 +2400,7 @@
       <c r="E107" s="10"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2043,7 +2411,7 @@
       <c r="E108" s="10"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2054,7 +2422,7 @@
       <c r="E109" s="10"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2065,7 +2433,7 @@
       <c r="E110" s="10"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2076,7 +2444,7 @@
       <c r="E111" s="10"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2087,7 +2455,7 @@
       <c r="E112" s="10"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2098,7 +2466,7 @@
       <c r="E113" s="10"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2109,7 +2477,7 @@
       <c r="E114" s="10"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2120,7 +2488,7 @@
       <c r="E115" s="10"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2131,7 +2499,7 @@
       <c r="E116" s="10"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2142,7 +2510,7 @@
       <c r="E117" s="10"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2153,7 +2521,7 @@
       <c r="E118" s="10"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2164,7 +2532,7 @@
       <c r="E119" s="10"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2175,7 +2543,7 @@
       <c r="E120" s="10"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2186,7 +2554,7 @@
       <c r="E121" s="10"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2197,7 +2565,7 @@
       <c r="E122" s="10"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2208,7 +2576,7 @@
       <c r="E123" s="10"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2219,7 +2587,7 @@
       <c r="E124" s="10"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2230,7 +2598,7 @@
       <c r="E125" s="10"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2241,7 +2609,7 @@
       <c r="E126" s="10"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2252,7 +2620,7 @@
       <c r="E127" s="10"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2263,7 +2631,7 @@
       <c r="E128" s="10"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2274,7 +2642,7 @@
       <c r="E129" s="10"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2285,7 +2653,7 @@
       <c r="E130" s="10"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2296,7 +2664,7 @@
       <c r="E131" s="10"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2307,7 +2675,7 @@
       <c r="E132" s="10"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2318,7 +2686,7 @@
       <c r="E133" s="10"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2329,7 +2697,7 @@
       <c r="E134" s="10"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2340,7 +2708,7 @@
       <c r="E135" s="10"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2351,7 +2719,7 @@
       <c r="E136" s="10"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2362,7 +2730,7 @@
       <c r="E137" s="10"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2373,7 +2741,7 @@
       <c r="E138" s="10"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2384,7 +2752,7 @@
       <c r="E139" s="10"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2395,7 +2763,7 @@
       <c r="E140" s="10"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2406,7 +2774,7 @@
       <c r="E141" s="10"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2417,7 +2785,7 @@
       <c r="E142" s="10"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2428,7 +2796,7 @@
       <c r="E143" s="10"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2439,7 +2807,7 @@
       <c r="E144" s="10"/>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2450,7 +2818,7 @@
       <c r="E145" s="10"/>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2461,7 +2829,7 @@
       <c r="E146" s="10"/>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19">
         <f t="shared" ref="A147:A210" si="4">HYPERLINK(I147, H147)</f>
         <v>0</v>
@@ -2472,7 +2840,7 @@
       <c r="E147" s="10"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2483,7 +2851,7 @@
       <c r="E148" s="10"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2494,7 +2862,7 @@
       <c r="E149" s="10"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2505,7 +2873,7 @@
       <c r="E150" s="10"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2516,7 +2884,7 @@
       <c r="E151" s="10"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2527,7 +2895,7 @@
       <c r="E152" s="10"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2538,7 +2906,7 @@
       <c r="E153" s="10"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2549,7 +2917,7 @@
       <c r="E154" s="10"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2560,7 +2928,7 @@
       <c r="E155" s="10"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2571,7 +2939,7 @@
       <c r="E156" s="10"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2582,7 +2950,7 @@
       <c r="E157" s="10"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2593,7 +2961,7 @@
       <c r="E158" s="10"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2604,7 +2972,7 @@
       <c r="E159" s="10"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2615,7 +2983,7 @@
       <c r="E160" s="10"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2626,7 +2994,7 @@
       <c r="E161" s="10"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2637,7 +3005,7 @@
       <c r="E162" s="10"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2648,7 +3016,7 @@
       <c r="E163" s="10"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2659,7 +3027,7 @@
       <c r="E164" s="10"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2670,7 +3038,7 @@
       <c r="E165" s="10"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2681,7 +3049,7 @@
       <c r="E166" s="10"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2692,7 +3060,7 @@
       <c r="E167" s="10"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2703,7 +3071,7 @@
       <c r="E168" s="10"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2714,7 +3082,7 @@
       <c r="E169" s="10"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2725,7 +3093,7 @@
       <c r="E170" s="10"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2736,7 +3104,7 @@
       <c r="E171" s="10"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2747,7 +3115,7 @@
       <c r="E172" s="10"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2758,7 +3126,7 @@
       <c r="E173" s="10"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2769,7 +3137,7 @@
       <c r="E174" s="10"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2780,7 +3148,7 @@
       <c r="E175" s="10"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2791,7 +3159,7 @@
       <c r="E176" s="10"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2802,7 +3170,7 @@
       <c r="E177" s="10"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2813,7 +3181,7 @@
       <c r="E178" s="10"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2824,7 +3192,7 @@
       <c r="E179" s="10"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2835,7 +3203,7 @@
       <c r="E180" s="10"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2846,7 +3214,7 @@
       <c r="E181" s="10"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2857,7 +3225,7 @@
       <c r="E182" s="10"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2868,7 +3236,7 @@
       <c r="E183" s="10"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2879,7 +3247,7 @@
       <c r="E184" s="10"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2890,7 +3258,7 @@
       <c r="E185" s="10"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2901,7 +3269,7 @@
       <c r="E186" s="10"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2912,7 +3280,7 @@
       <c r="E187" s="10"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2923,7 +3291,7 @@
       <c r="E188" s="10"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2934,7 +3302,7 @@
       <c r="E189" s="10"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2945,7 +3313,7 @@
       <c r="E190" s="10"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2956,7 +3324,7 @@
       <c r="E191" s="10"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2967,7 +3335,7 @@
       <c r="E192" s="10"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2978,7 +3346,7 @@
       <c r="E193" s="10"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2989,7 +3357,7 @@
       <c r="E194" s="10"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3000,7 +3368,7 @@
       <c r="E195" s="10"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3011,7 +3379,7 @@
       <c r="E196" s="10"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3022,7 +3390,7 @@
       <c r="E197" s="10"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3033,7 +3401,7 @@
       <c r="E198" s="10"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3044,7 +3412,7 @@
       <c r="E199" s="10"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3055,7 +3423,7 @@
       <c r="E200" s="10"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3066,7 +3434,7 @@
       <c r="E201" s="10"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3077,7 +3445,7 @@
       <c r="E202" s="10"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3088,7 +3456,7 @@
       <c r="E203" s="10"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3099,7 +3467,7 @@
       <c r="E204" s="10"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3110,7 +3478,7 @@
       <c r="E205" s="10"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3121,7 +3489,7 @@
       <c r="E206" s="10"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3132,7 +3500,7 @@
       <c r="E207" s="10"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3143,7 +3511,7 @@
       <c r="E208" s="10"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3154,7 +3522,7 @@
       <c r="E209" s="10"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3165,7 +3533,7 @@
       <c r="E210" s="10"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19">
         <f t="shared" ref="A211:A227" si="5">HYPERLINK(I211, H211)</f>
         <v>0</v>
@@ -3176,7 +3544,7 @@
       <c r="E211" s="10"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3187,7 +3555,7 @@
       <c r="E212" s="10"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3198,7 +3566,7 @@
       <c r="E213" s="10"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3209,7 +3577,7 @@
       <c r="E214" s="10"/>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3220,7 +3588,7 @@
       <c r="E215" s="10"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3231,7 +3599,7 @@
       <c r="E216" s="10"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3242,7 +3610,7 @@
       <c r="E217" s="10"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3253,7 +3621,7 @@
       <c r="E218" s="10"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3264,7 +3632,7 @@
       <c r="E219" s="10"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3275,7 +3643,7 @@
       <c r="E220" s="10"/>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3286,7 +3654,7 @@
       <c r="E221" s="10"/>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3297,7 +3665,7 @@
       <c r="E222" s="10"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3308,7 +3676,7 @@
       <c r="E223" s="10"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3319,7 +3687,7 @@
       <c r="E224" s="10"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3330,7 +3698,7 @@
       <c r="E225" s="10"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3341,7 +3709,7 @@
       <c r="E226" s="10"/>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3352,112 +3720,119 @@
       <c r="E227" s="10"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="C228" s="12"/>
       <c r="F228" s="21"/>
     </row>
-    <row r="229" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="C229" s="12"/>
     </row>
-    <row r="230" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="C230" s="12"/>
     </row>
-    <row r="231" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="C231" s="12"/>
     </row>
-    <row r="232" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="C232" s="12"/>
     </row>
-    <row r="233" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="C233" s="12"/>
     </row>
-    <row r="234" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="C234" s="12"/>
     </row>
-    <row r="235" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="C235" s="12"/>
     </row>
-    <row r="236" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="C236" s="12"/>
     </row>
-    <row r="237" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="C237" s="12"/>
     </row>
-    <row r="238" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="C238" s="12"/>
     </row>
-    <row r="239" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="C239" s="12"/>
     </row>
-    <row r="240" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="C240" s="12"/>
     </row>
-    <row r="241" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="C241" s="12"/>
     </row>
-    <row r="242" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="C242" s="12"/>
     </row>
-    <row r="243" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="C243" s="12"/>
     </row>
-    <row r="244" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="C244" s="12"/>
     </row>
-    <row r="245" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="C245" s="12"/>
     </row>
-    <row r="246" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="C246" s="12"/>
     </row>
-    <row r="247" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="C247" s="12"/>
     </row>
-    <row r="248" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="C248" s="12"/>
     </row>
-    <row r="249" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="C249" s="12"/>
     </row>
-    <row r="250" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="C250" s="12"/>
     </row>
-    <row r="251" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="C251" s="12"/>
     </row>
-    <row r="252" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="C252" s="12"/>
     </row>
-    <row r="253" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="C253" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P253" xr:uid="{C9CA4026-E2FF-4643-851D-55602EE429F1}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Purolator"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K253">
     <sortCondition ref="D1"/>
   </sortState>
@@ -3501,7 +3876,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3559,40 +3934,91 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="19" t="str">
         <f t="shared" ref="A2:A5" si="0">HYPERLINK(I2, H2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10"/>
+        <v>7183382-00</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10">
+        <v>44246.518670787038</v>
+      </c>
       <c r="F2" s="18"/>
       <c r="G2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="10"/>
+        <v>7183457-00</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44246.518672488426</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="8"/>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="10"/>
+        <v>7183439-00</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44246.518671516205</v>
+      </c>
       <c r="F4" s="18"/>
       <c r="G4" s="8"/>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
@@ -3600,8 +4026,12 @@
         <v>0</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="G5" s="8"/>
     </row>
@@ -3611,8 +4041,12 @@
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="G6" s="8"/>
     </row>
@@ -3622,8 +4056,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="G7" s="8"/>
     </row>
@@ -3633,8 +4071,12 @@
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
@@ -3645,8 +4087,12 @@
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="18"/>
       <c r="G9" s="8"/>
@@ -3657,8 +4103,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
@@ -3669,8 +4119,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>
@@ -6156,6 +6610,7 @@
       <c r="C253" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Shipped "</formula>
@@ -6206,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42AD972-1119-4720-A447-D0F30115ACD0}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6264,16 +6719,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="19" t="str">
         <f t="shared" ref="A2:A6" si="0">HYPERLINK(I2, H2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="8"/>
+        <v>7183409-00_reprint</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10">
+        <v>44249.574440578705</v>
+      </c>
+      <c r="F2" s="18" t="str">
+        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183409-00.pdf", "7183409-00")</f>
+        <v>7183409-00</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -6281,8 +6758,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="18"/>
       <c r="G3" s="8"/>
@@ -6296,8 +6777,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="G4" s="8"/>
       <c r="P4" s="5" t="s">
@@ -6310,8 +6795,12 @@
         <v>0</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="G5" s="8"/>
       <c r="P5" s="5" t="s">
@@ -6324,8 +6813,12 @@
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="G6" s="8"/>
     </row>
@@ -6335,8 +6828,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="G7" s="8"/>
     </row>
@@ -6346,8 +6843,12 @@
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
@@ -6358,8 +6859,12 @@
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="G9" s="8"/>
     </row>
@@ -6369,8 +6874,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="G10" s="8"/>
     </row>
@@ -6380,8 +6889,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>

--- a/STABLE CODE/Jupyter/testfile.xlsx
+++ b/STABLE CODE/Jupyter/testfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC06F0-F188-4DE9-A1E3-70B39E3AE21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DD48B-5B2F-47F2-AC4C-835F5D9D43C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Just Received" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>Order #</t>
   </si>
@@ -199,46 +199,10 @@
     <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183457-00.pdf</t>
   </si>
   <si>
-    <t>Moved back to 'Shipped'</t>
-  </si>
-  <si>
     <t>Moved back to 'Just Received'</t>
   </si>
   <si>
     <t>Moved to 'Shipped'</t>
-  </si>
-  <si>
-    <t>7183343-00_reprint</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00_reprint.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\7183343-00.pdf</t>
-  </si>
-  <si>
-    <t>7183343-00_reprint_reprint</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00_reprint_reprint.pdf</t>
-  </si>
-  <si>
-    <t>7183379-00_reprint</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183379-00_reprint.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\7183379-00.pdf</t>
-  </si>
-  <si>
-    <t>7183409-00_reprint</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183409-00_reprint.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\email_archive\7183409-00.pdf</t>
   </si>
   <si>
     <t>Moved to 'Billed'</t>
@@ -403,7 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +428,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,32 +955,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:P253"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D260" sqref="D260"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="10" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="166.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="5" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" style="5"/>
-    <col min="16" max="16" width="15.28515625" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="5"/>
+    <col min="7" max="7" width="20.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="166.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="30" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" style="30"/>
+    <col min="16" max="16" width="15.28515625" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1007,141 +1002,133 @@
       <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="str">
         <f t="shared" ref="A2:A13" si="0">HYPERLINK(I2, H2)</f>
-        <v>7183343-00</v>
+        <v>7183382-00</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" s="10">
-        <v>44246.5186703125</v>
+        <v>44253.488292719907</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>7183379-00</v>
+        <v>7183343-00</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="10">
-        <v>44246.518670543985</v>
+        <v>44253.48827765046</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>7183343-00_reprint</v>
+        <v>7183442-00</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E4" s="10">
-        <v>44249.572577083331</v>
-      </c>
-      <c r="F4" s="18" t="str">
-        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00.pdf", "7183343-00")</f>
-        <v>7183343-00</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="5" t="s">
+        <v>44253.488293981478</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="H4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="str">
+    <row r="5" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>7183404-00</v>
+        <v>7183454-00</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10">
-        <v>44246.518671053243</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="25">
+        <v>44253.488294259259</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>18</v>
@@ -1150,222 +1137,158 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>7183409-00</v>
+        <v>7183457-00</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10">
-        <v>44246.518671284721</v>
+        <v>44253.488294525465</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="8"/>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>7183439-00</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44253.488293530092</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="str">
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
-        <v>7183441-00</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10">
-        <v>44246.518671724538</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="str">
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <f t="shared" si="0"/>
-        <v>7183442-00</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="10">
-        <v>44246.518671956015</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="str">
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
-        <v>7183454-00</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10">
-        <v>44246.518672245373</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="str">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
-        <v>7183343-00_reprint_reprint</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="10">
-        <v>44249.57305890046</v>
-      </c>
-      <c r="F11" s="18" t="str">
-        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183343-00_reprint.pdf", "7183343-00_reprint")</f>
-        <v>7183343-00_reprint</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="str">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
-        <v>7183379-00_reprint</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10">
-        <v>44249.57396037037</v>
-      </c>
-      <c r="F12" s="18" t="str">
-        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183379-00.pdf", "7183379-00")</f>
-        <v>7183379-00</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <f t="shared" ref="A14:A18" si="1">HYPERLINK(I14, H14)</f>
         <v>0</v>
@@ -1376,8 +1299,11 @@
       <c r="E14" s="10"/>
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1386,9 +1312,13 @@
       <c r="C15" s="9"/>
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1397,9 +1327,13 @@
       <c r="C16" s="9"/>
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="4"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1408,9 +1342,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1419,9 +1357,13 @@
       <c r="C18" s="9"/>
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f t="shared" ref="A19:A82" si="2">HYPERLINK(I19, H19)</f>
         <v>0</v>
@@ -1430,9 +1372,13 @@
       <c r="C19" s="9"/>
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1441,9 +1387,13 @@
       <c r="C20" s="9"/>
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="4"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1452,9 +1402,13 @@
       <c r="C21" s="9"/>
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1463,9 +1417,13 @@
       <c r="C22" s="9"/>
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="4"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1474,9 +1432,13 @@
       <c r="C23" s="9"/>
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1485,9 +1447,13 @@
       <c r="C24" s="9"/>
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="4"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1496,9 +1462,13 @@
       <c r="C25" s="9"/>
       <c r="D25" s="16"/>
       <c r="E25" s="10"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="4"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1507,9 +1477,13 @@
       <c r="C26" s="9"/>
       <c r="D26" s="16"/>
       <c r="E26" s="10"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="4"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1518,9 +1492,13 @@
       <c r="C27" s="9"/>
       <c r="D27" s="16"/>
       <c r="E27" s="10"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1529,9 +1507,13 @@
       <c r="C28" s="9"/>
       <c r="D28" s="16"/>
       <c r="E28" s="10"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="4"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1540,9 +1522,13 @@
       <c r="C29" s="9"/>
       <c r="D29" s="16"/>
       <c r="E29" s="10"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="4"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1551,9 +1537,13 @@
       <c r="C30" s="9"/>
       <c r="D30" s="16"/>
       <c r="E30" s="10"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="4"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1562,9 +1552,13 @@
       <c r="C31" s="9"/>
       <c r="D31" s="16"/>
       <c r="E31" s="10"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1573,9 +1567,13 @@
       <c r="C32" s="9"/>
       <c r="D32" s="16"/>
       <c r="E32" s="10"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="4"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1584,9 +1582,13 @@
       <c r="C33" s="9"/>
       <c r="D33" s="16"/>
       <c r="E33" s="10"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="4"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1595,9 +1597,13 @@
       <c r="C34" s="9"/>
       <c r="D34" s="16"/>
       <c r="E34" s="10"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="4"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1606,9 +1612,13 @@
       <c r="C35" s="9"/>
       <c r="D35" s="16"/>
       <c r="E35" s="10"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="4"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1617,9 +1627,13 @@
       <c r="C36" s="9"/>
       <c r="D36" s="16"/>
       <c r="E36" s="10"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="4"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1628,9 +1642,13 @@
       <c r="C37" s="9"/>
       <c r="D37" s="16"/>
       <c r="E37" s="10"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="4"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1639,9 +1657,13 @@
       <c r="C38" s="9"/>
       <c r="D38" s="16"/>
       <c r="E38" s="10"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="4"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1650,9 +1672,13 @@
       <c r="C39" s="9"/>
       <c r="D39" s="16"/>
       <c r="E39" s="10"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="4"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1661,9 +1687,13 @@
       <c r="C40" s="9"/>
       <c r="D40" s="16"/>
       <c r="E40" s="10"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="4"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1672,9 +1702,13 @@
       <c r="C41" s="9"/>
       <c r="D41" s="16"/>
       <c r="E41" s="10"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="4"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1683,9 +1717,13 @@
       <c r="C42" s="9"/>
       <c r="D42" s="16"/>
       <c r="E42" s="10"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="4"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1694,9 +1732,13 @@
       <c r="C43" s="9"/>
       <c r="D43" s="16"/>
       <c r="E43" s="10"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="4"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1705,9 +1747,13 @@
       <c r="C44" s="9"/>
       <c r="D44" s="16"/>
       <c r="E44" s="10"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="4"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1716,9 +1762,13 @@
       <c r="C45" s="9"/>
       <c r="D45" s="16"/>
       <c r="E45" s="10"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="4"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1727,9 +1777,13 @@
       <c r="C46" s="9"/>
       <c r="D46" s="16"/>
       <c r="E46" s="10"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="4"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1738,9 +1792,13 @@
       <c r="C47" s="9"/>
       <c r="D47" s="16"/>
       <c r="E47" s="10"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="4"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1749,9 +1807,13 @@
       <c r="C48" s="9"/>
       <c r="D48" s="16"/>
       <c r="E48" s="10"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="4"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1760,9 +1822,13 @@
       <c r="C49" s="9"/>
       <c r="D49" s="16"/>
       <c r="E49" s="10"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="4"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1771,9 +1837,13 @@
       <c r="C50" s="9"/>
       <c r="D50" s="16"/>
       <c r="E50" s="10"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="4"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1782,9 +1852,13 @@
       <c r="C51" s="9"/>
       <c r="D51" s="16"/>
       <c r="E51" s="10"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="4"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1793,9 +1867,13 @@
       <c r="C52" s="9"/>
       <c r="D52" s="16"/>
       <c r="E52" s="10"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="4"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1804,9 +1882,13 @@
       <c r="C53" s="9"/>
       <c r="D53" s="16"/>
       <c r="E53" s="10"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="4"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1815,9 +1897,13 @@
       <c r="C54" s="9"/>
       <c r="D54" s="16"/>
       <c r="E54" s="10"/>
+      <c r="F54" s="19"/>
       <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="4"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1826,9 +1912,13 @@
       <c r="C55" s="9"/>
       <c r="D55" s="16"/>
       <c r="E55" s="10"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="4"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1837,9 +1927,13 @@
       <c r="C56" s="9"/>
       <c r="D56" s="16"/>
       <c r="E56" s="10"/>
+      <c r="F56" s="19"/>
       <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="4"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1848,9 +1942,13 @@
       <c r="C57" s="9"/>
       <c r="D57" s="16"/>
       <c r="E57" s="10"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="4"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1859,9 +1957,13 @@
       <c r="C58" s="9"/>
       <c r="D58" s="16"/>
       <c r="E58" s="10"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="4"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1870,9 +1972,13 @@
       <c r="C59" s="9"/>
       <c r="D59" s="16"/>
       <c r="E59" s="10"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="4"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1881,9 +1987,13 @@
       <c r="C60" s="9"/>
       <c r="D60" s="16"/>
       <c r="E60" s="10"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="4"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1892,9 +2002,13 @@
       <c r="C61" s="9"/>
       <c r="D61" s="16"/>
       <c r="E61" s="10"/>
+      <c r="F61" s="19"/>
       <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="4"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1903,9 +2017,13 @@
       <c r="C62" s="9"/>
       <c r="D62" s="16"/>
       <c r="E62" s="10"/>
+      <c r="F62" s="19"/>
       <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="4"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1914,9 +2032,13 @@
       <c r="C63" s="9"/>
       <c r="D63" s="16"/>
       <c r="E63" s="10"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="4"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1925,9 +2047,13 @@
       <c r="C64" s="9"/>
       <c r="D64" s="16"/>
       <c r="E64" s="10"/>
+      <c r="F64" s="19"/>
       <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="4"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1936,9 +2062,13 @@
       <c r="C65" s="9"/>
       <c r="D65" s="16"/>
       <c r="E65" s="10"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="4"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1947,9 +2077,13 @@
       <c r="C66" s="9"/>
       <c r="D66" s="16"/>
       <c r="E66" s="10"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="4"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1958,9 +2092,13 @@
       <c r="C67" s="9"/>
       <c r="D67" s="16"/>
       <c r="E67" s="10"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="4"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1969,9 +2107,13 @@
       <c r="C68" s="9"/>
       <c r="D68" s="16"/>
       <c r="E68" s="10"/>
+      <c r="F68" s="19"/>
       <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="4"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1980,9 +2122,13 @@
       <c r="C69" s="9"/>
       <c r="D69" s="16"/>
       <c r="E69" s="10"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H69" s="4"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1991,9 +2137,13 @@
       <c r="C70" s="9"/>
       <c r="D70" s="16"/>
       <c r="E70" s="10"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H70" s="4"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2002,9 +2152,13 @@
       <c r="C71" s="9"/>
       <c r="D71" s="16"/>
       <c r="E71" s="10"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="4"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2013,9 +2167,13 @@
       <c r="C72" s="9"/>
       <c r="D72" s="16"/>
       <c r="E72" s="10"/>
+      <c r="F72" s="19"/>
       <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="4"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2024,9 +2182,13 @@
       <c r="C73" s="9"/>
       <c r="D73" s="16"/>
       <c r="E73" s="10"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="4"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2035,9 +2197,13 @@
       <c r="C74" s="9"/>
       <c r="D74" s="16"/>
       <c r="E74" s="10"/>
+      <c r="F74" s="19"/>
       <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="4"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2046,9 +2212,13 @@
       <c r="C75" s="9"/>
       <c r="D75" s="16"/>
       <c r="E75" s="10"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H75" s="4"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2057,9 +2227,13 @@
       <c r="C76" s="9"/>
       <c r="D76" s="16"/>
       <c r="E76" s="10"/>
+      <c r="F76" s="19"/>
       <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="4"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2068,9 +2242,13 @@
       <c r="C77" s="9"/>
       <c r="D77" s="16"/>
       <c r="E77" s="10"/>
+      <c r="F77" s="19"/>
       <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="4"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2079,9 +2257,13 @@
       <c r="C78" s="9"/>
       <c r="D78" s="16"/>
       <c r="E78" s="10"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="4"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2090,9 +2272,13 @@
       <c r="C79" s="9"/>
       <c r="D79" s="16"/>
       <c r="E79" s="10"/>
+      <c r="F79" s="19"/>
       <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="4"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2101,9 +2287,13 @@
       <c r="C80" s="9"/>
       <c r="D80" s="16"/>
       <c r="E80" s="10"/>
+      <c r="F80" s="19"/>
       <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="4"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2112,9 +2302,13 @@
       <c r="C81" s="9"/>
       <c r="D81" s="16"/>
       <c r="E81" s="10"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H81" s="4"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2123,9 +2317,13 @@
       <c r="C82" s="9"/>
       <c r="D82" s="16"/>
       <c r="E82" s="10"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H82" s="4"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <f t="shared" ref="A83:A146" si="3">HYPERLINK(I83, H83)</f>
         <v>0</v>
@@ -2134,9 +2332,13 @@
       <c r="C83" s="9"/>
       <c r="D83" s="16"/>
       <c r="E83" s="10"/>
+      <c r="F83" s="19"/>
       <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="4"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2145,9 +2347,13 @@
       <c r="C84" s="9"/>
       <c r="D84" s="16"/>
       <c r="E84" s="10"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="4"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2156,9 +2362,13 @@
       <c r="C85" s="9"/>
       <c r="D85" s="16"/>
       <c r="E85" s="10"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="4"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2167,9 +2377,13 @@
       <c r="C86" s="9"/>
       <c r="D86" s="16"/>
       <c r="E86" s="10"/>
+      <c r="F86" s="19"/>
       <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="4"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2178,9 +2392,13 @@
       <c r="C87" s="9"/>
       <c r="D87" s="16"/>
       <c r="E87" s="10"/>
+      <c r="F87" s="19"/>
       <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="4"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2189,9 +2407,13 @@
       <c r="C88" s="9"/>
       <c r="D88" s="16"/>
       <c r="E88" s="10"/>
+      <c r="F88" s="19"/>
       <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H88" s="4"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2200,9 +2422,13 @@
       <c r="C89" s="9"/>
       <c r="D89" s="16"/>
       <c r="E89" s="10"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H89" s="4"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2211,9 +2437,13 @@
       <c r="C90" s="9"/>
       <c r="D90" s="16"/>
       <c r="E90" s="10"/>
+      <c r="F90" s="19"/>
       <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="4"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2222,9 +2452,13 @@
       <c r="C91" s="9"/>
       <c r="D91" s="16"/>
       <c r="E91" s="10"/>
+      <c r="F91" s="19"/>
       <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="4"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2233,9 +2467,13 @@
       <c r="C92" s="9"/>
       <c r="D92" s="16"/>
       <c r="E92" s="10"/>
+      <c r="F92" s="19"/>
       <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="4"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2244,9 +2482,13 @@
       <c r="C93" s="9"/>
       <c r="D93" s="16"/>
       <c r="E93" s="10"/>
+      <c r="F93" s="19"/>
       <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="4"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2255,9 +2497,13 @@
       <c r="C94" s="9"/>
       <c r="D94" s="16"/>
       <c r="E94" s="10"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="4"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2266,9 +2512,13 @@
       <c r="C95" s="9"/>
       <c r="D95" s="16"/>
       <c r="E95" s="10"/>
+      <c r="F95" s="19"/>
       <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="4"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2277,9 +2527,13 @@
       <c r="C96" s="9"/>
       <c r="D96" s="16"/>
       <c r="E96" s="10"/>
+      <c r="F96" s="19"/>
       <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="4"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2288,9 +2542,13 @@
       <c r="C97" s="9"/>
       <c r="D97" s="16"/>
       <c r="E97" s="10"/>
+      <c r="F97" s="19"/>
       <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H97" s="4"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2299,9 +2557,13 @@
       <c r="C98" s="9"/>
       <c r="D98" s="16"/>
       <c r="E98" s="10"/>
+      <c r="F98" s="19"/>
       <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H98" s="4"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2310,9 +2572,13 @@
       <c r="C99" s="9"/>
       <c r="D99" s="16"/>
       <c r="E99" s="10"/>
+      <c r="F99" s="19"/>
       <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H99" s="4"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2321,9 +2587,13 @@
       <c r="C100" s="9"/>
       <c r="D100" s="16"/>
       <c r="E100" s="10"/>
+      <c r="F100" s="19"/>
       <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H100" s="4"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2332,9 +2602,13 @@
       <c r="C101" s="9"/>
       <c r="D101" s="16"/>
       <c r="E101" s="10"/>
+      <c r="F101" s="19"/>
       <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H101" s="4"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2343,9 +2617,13 @@
       <c r="C102" s="9"/>
       <c r="D102" s="16"/>
       <c r="E102" s="10"/>
+      <c r="F102" s="19"/>
       <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H102" s="4"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2354,9 +2632,13 @@
       <c r="C103" s="9"/>
       <c r="D103" s="16"/>
       <c r="E103" s="10"/>
+      <c r="F103" s="19"/>
       <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H103" s="4"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2365,9 +2647,13 @@
       <c r="C104" s="9"/>
       <c r="D104" s="16"/>
       <c r="E104" s="10"/>
+      <c r="F104" s="19"/>
       <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H104" s="4"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2376,9 +2662,13 @@
       <c r="C105" s="9"/>
       <c r="D105" s="16"/>
       <c r="E105" s="10"/>
+      <c r="F105" s="19"/>
       <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H105" s="4"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2387,9 +2677,13 @@
       <c r="C106" s="9"/>
       <c r="D106" s="16"/>
       <c r="E106" s="10"/>
+      <c r="F106" s="19"/>
       <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H106" s="4"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2398,9 +2692,13 @@
       <c r="C107" s="9"/>
       <c r="D107" s="16"/>
       <c r="E107" s="10"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H107" s="4"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2409,9 +2707,13 @@
       <c r="C108" s="9"/>
       <c r="D108" s="16"/>
       <c r="E108" s="10"/>
+      <c r="F108" s="19"/>
       <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H108" s="4"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2420,9 +2722,13 @@
       <c r="C109" s="9"/>
       <c r="D109" s="16"/>
       <c r="E109" s="10"/>
+      <c r="F109" s="19"/>
       <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H109" s="4"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2431,9 +2737,13 @@
       <c r="C110" s="9"/>
       <c r="D110" s="16"/>
       <c r="E110" s="10"/>
+      <c r="F110" s="19"/>
       <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H110" s="4"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2442,9 +2752,13 @@
       <c r="C111" s="9"/>
       <c r="D111" s="16"/>
       <c r="E111" s="10"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H111" s="4"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2453,9 +2767,13 @@
       <c r="C112" s="9"/>
       <c r="D112" s="16"/>
       <c r="E112" s="10"/>
+      <c r="F112" s="19"/>
       <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H112" s="4"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2464,9 +2782,13 @@
       <c r="C113" s="9"/>
       <c r="D113" s="16"/>
       <c r="E113" s="10"/>
+      <c r="F113" s="19"/>
       <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H113" s="4"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2475,9 +2797,13 @@
       <c r="C114" s="9"/>
       <c r="D114" s="16"/>
       <c r="E114" s="10"/>
+      <c r="F114" s="19"/>
       <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H114" s="4"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2486,9 +2812,13 @@
       <c r="C115" s="9"/>
       <c r="D115" s="16"/>
       <c r="E115" s="10"/>
+      <c r="F115" s="19"/>
       <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H115" s="4"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2497,9 +2827,13 @@
       <c r="C116" s="9"/>
       <c r="D116" s="16"/>
       <c r="E116" s="10"/>
+      <c r="F116" s="19"/>
       <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H116" s="4"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2508,9 +2842,13 @@
       <c r="C117" s="9"/>
       <c r="D117" s="16"/>
       <c r="E117" s="10"/>
+      <c r="F117" s="19"/>
       <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H117" s="4"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2519,9 +2857,13 @@
       <c r="C118" s="9"/>
       <c r="D118" s="16"/>
       <c r="E118" s="10"/>
+      <c r="F118" s="19"/>
       <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H118" s="4"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2530,9 +2872,13 @@
       <c r="C119" s="9"/>
       <c r="D119" s="16"/>
       <c r="E119" s="10"/>
+      <c r="F119" s="19"/>
       <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H119" s="4"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2541,9 +2887,13 @@
       <c r="C120" s="9"/>
       <c r="D120" s="16"/>
       <c r="E120" s="10"/>
+      <c r="F120" s="19"/>
       <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H120" s="4"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2552,9 +2902,13 @@
       <c r="C121" s="9"/>
       <c r="D121" s="16"/>
       <c r="E121" s="10"/>
+      <c r="F121" s="19"/>
       <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H121" s="4"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2563,9 +2917,13 @@
       <c r="C122" s="9"/>
       <c r="D122" s="16"/>
       <c r="E122" s="10"/>
+      <c r="F122" s="19"/>
       <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H122" s="4"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2574,9 +2932,13 @@
       <c r="C123" s="9"/>
       <c r="D123" s="16"/>
       <c r="E123" s="10"/>
+      <c r="F123" s="19"/>
       <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H123" s="4"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2585,9 +2947,13 @@
       <c r="C124" s="9"/>
       <c r="D124" s="16"/>
       <c r="E124" s="10"/>
+      <c r="F124" s="19"/>
       <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H124" s="4"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2596,9 +2962,13 @@
       <c r="C125" s="9"/>
       <c r="D125" s="16"/>
       <c r="E125" s="10"/>
+      <c r="F125" s="19"/>
       <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H125" s="4"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2607,9 +2977,13 @@
       <c r="C126" s="9"/>
       <c r="D126" s="16"/>
       <c r="E126" s="10"/>
+      <c r="F126" s="19"/>
       <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H126" s="4"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2618,9 +2992,13 @@
       <c r="C127" s="9"/>
       <c r="D127" s="16"/>
       <c r="E127" s="10"/>
+      <c r="F127" s="19"/>
       <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H127" s="4"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2629,9 +3007,13 @@
       <c r="C128" s="9"/>
       <c r="D128" s="16"/>
       <c r="E128" s="10"/>
+      <c r="F128" s="19"/>
       <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H128" s="4"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2640,9 +3022,13 @@
       <c r="C129" s="9"/>
       <c r="D129" s="16"/>
       <c r="E129" s="10"/>
+      <c r="F129" s="19"/>
       <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H129" s="4"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2651,9 +3037,13 @@
       <c r="C130" s="9"/>
       <c r="D130" s="16"/>
       <c r="E130" s="10"/>
+      <c r="F130" s="19"/>
       <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H130" s="4"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2662,9 +3052,13 @@
       <c r="C131" s="9"/>
       <c r="D131" s="16"/>
       <c r="E131" s="10"/>
+      <c r="F131" s="19"/>
       <c r="G131" s="8"/>
-    </row>
-    <row r="132" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H131" s="4"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2673,9 +3067,13 @@
       <c r="C132" s="9"/>
       <c r="D132" s="16"/>
       <c r="E132" s="10"/>
+      <c r="F132" s="19"/>
       <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H132" s="4"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2684,9 +3082,13 @@
       <c r="C133" s="9"/>
       <c r="D133" s="16"/>
       <c r="E133" s="10"/>
+      <c r="F133" s="19"/>
       <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H133" s="4"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2695,9 +3097,13 @@
       <c r="C134" s="9"/>
       <c r="D134" s="16"/>
       <c r="E134" s="10"/>
+      <c r="F134" s="19"/>
       <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H134" s="4"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2706,9 +3112,13 @@
       <c r="C135" s="9"/>
       <c r="D135" s="16"/>
       <c r="E135" s="10"/>
+      <c r="F135" s="19"/>
       <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H135" s="4"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2717,9 +3127,13 @@
       <c r="C136" s="9"/>
       <c r="D136" s="16"/>
       <c r="E136" s="10"/>
+      <c r="F136" s="19"/>
       <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H136" s="4"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2728,9 +3142,13 @@
       <c r="C137" s="9"/>
       <c r="D137" s="16"/>
       <c r="E137" s="10"/>
+      <c r="F137" s="19"/>
       <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H137" s="4"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2739,9 +3157,13 @@
       <c r="C138" s="9"/>
       <c r="D138" s="16"/>
       <c r="E138" s="10"/>
+      <c r="F138" s="19"/>
       <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H138" s="4"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2750,9 +3172,13 @@
       <c r="C139" s="9"/>
       <c r="D139" s="16"/>
       <c r="E139" s="10"/>
+      <c r="F139" s="19"/>
       <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H139" s="4"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2761,9 +3187,13 @@
       <c r="C140" s="9"/>
       <c r="D140" s="16"/>
       <c r="E140" s="10"/>
+      <c r="F140" s="19"/>
       <c r="G140" s="8"/>
-    </row>
-    <row r="141" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H140" s="4"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2772,9 +3202,13 @@
       <c r="C141" s="9"/>
       <c r="D141" s="16"/>
       <c r="E141" s="10"/>
+      <c r="F141" s="19"/>
       <c r="G141" s="8"/>
-    </row>
-    <row r="142" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H141" s="4"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2783,9 +3217,13 @@
       <c r="C142" s="9"/>
       <c r="D142" s="16"/>
       <c r="E142" s="10"/>
+      <c r="F142" s="19"/>
       <c r="G142" s="8"/>
-    </row>
-    <row r="143" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H142" s="4"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2794,9 +3232,13 @@
       <c r="C143" s="9"/>
       <c r="D143" s="16"/>
       <c r="E143" s="10"/>
+      <c r="F143" s="19"/>
       <c r="G143" s="8"/>
-    </row>
-    <row r="144" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H143" s="4"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2805,9 +3247,13 @@
       <c r="C144" s="9"/>
       <c r="D144" s="16"/>
       <c r="E144" s="10"/>
+      <c r="F144" s="19"/>
       <c r="G144" s="8"/>
-    </row>
-    <row r="145" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H144" s="4"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2816,9 +3262,13 @@
       <c r="C145" s="9"/>
       <c r="D145" s="16"/>
       <c r="E145" s="10"/>
+      <c r="F145" s="19"/>
       <c r="G145" s="8"/>
-    </row>
-    <row r="146" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H145" s="4"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2827,9 +3277,13 @@
       <c r="C146" s="9"/>
       <c r="D146" s="16"/>
       <c r="E146" s="10"/>
+      <c r="F146" s="19"/>
       <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H146" s="4"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19">
         <f t="shared" ref="A147:A210" si="4">HYPERLINK(I147, H147)</f>
         <v>0</v>
@@ -2838,9 +3292,13 @@
       <c r="C147" s="9"/>
       <c r="D147" s="16"/>
       <c r="E147" s="10"/>
+      <c r="F147" s="19"/>
       <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H147" s="4"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2849,9 +3307,13 @@
       <c r="C148" s="9"/>
       <c r="D148" s="16"/>
       <c r="E148" s="10"/>
+      <c r="F148" s="19"/>
       <c r="G148" s="8"/>
-    </row>
-    <row r="149" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H148" s="4"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2860,9 +3322,13 @@
       <c r="C149" s="9"/>
       <c r="D149" s="16"/>
       <c r="E149" s="10"/>
+      <c r="F149" s="19"/>
       <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H149" s="4"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2871,9 +3337,13 @@
       <c r="C150" s="9"/>
       <c r="D150" s="16"/>
       <c r="E150" s="10"/>
+      <c r="F150" s="19"/>
       <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H150" s="4"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2882,9 +3352,13 @@
       <c r="C151" s="9"/>
       <c r="D151" s="16"/>
       <c r="E151" s="10"/>
+      <c r="F151" s="19"/>
       <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H151" s="4"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2893,9 +3367,13 @@
       <c r="C152" s="9"/>
       <c r="D152" s="16"/>
       <c r="E152" s="10"/>
+      <c r="F152" s="19"/>
       <c r="G152" s="8"/>
-    </row>
-    <row r="153" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H152" s="4"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2904,9 +3382,13 @@
       <c r="C153" s="9"/>
       <c r="D153" s="16"/>
       <c r="E153" s="10"/>
+      <c r="F153" s="19"/>
       <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H153" s="4"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2915,9 +3397,13 @@
       <c r="C154" s="9"/>
       <c r="D154" s="16"/>
       <c r="E154" s="10"/>
+      <c r="F154" s="19"/>
       <c r="G154" s="8"/>
-    </row>
-    <row r="155" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H154" s="4"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2926,9 +3412,13 @@
       <c r="C155" s="9"/>
       <c r="D155" s="16"/>
       <c r="E155" s="10"/>
+      <c r="F155" s="19"/>
       <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H155" s="4"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2937,9 +3427,13 @@
       <c r="C156" s="9"/>
       <c r="D156" s="16"/>
       <c r="E156" s="10"/>
+      <c r="F156" s="19"/>
       <c r="G156" s="8"/>
-    </row>
-    <row r="157" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H156" s="4"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2948,9 +3442,13 @@
       <c r="C157" s="9"/>
       <c r="D157" s="16"/>
       <c r="E157" s="10"/>
+      <c r="F157" s="19"/>
       <c r="G157" s="8"/>
-    </row>
-    <row r="158" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H157" s="4"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2959,9 +3457,13 @@
       <c r="C158" s="9"/>
       <c r="D158" s="16"/>
       <c r="E158" s="10"/>
+      <c r="F158" s="19"/>
       <c r="G158" s="8"/>
-    </row>
-    <row r="159" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H158" s="4"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2970,9 +3472,13 @@
       <c r="C159" s="9"/>
       <c r="D159" s="16"/>
       <c r="E159" s="10"/>
+      <c r="F159" s="19"/>
       <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H159" s="4"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2981,9 +3487,13 @@
       <c r="C160" s="9"/>
       <c r="D160" s="16"/>
       <c r="E160" s="10"/>
+      <c r="F160" s="19"/>
       <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H160" s="4"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2992,9 +3502,13 @@
       <c r="C161" s="9"/>
       <c r="D161" s="16"/>
       <c r="E161" s="10"/>
+      <c r="F161" s="19"/>
       <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H161" s="4"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3003,9 +3517,13 @@
       <c r="C162" s="9"/>
       <c r="D162" s="16"/>
       <c r="E162" s="10"/>
+      <c r="F162" s="19"/>
       <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H162" s="4"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3014,9 +3532,13 @@
       <c r="C163" s="9"/>
       <c r="D163" s="16"/>
       <c r="E163" s="10"/>
+      <c r="F163" s="19"/>
       <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H163" s="4"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3025,9 +3547,13 @@
       <c r="C164" s="9"/>
       <c r="D164" s="16"/>
       <c r="E164" s="10"/>
+      <c r="F164" s="19"/>
       <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H164" s="4"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3036,9 +3562,13 @@
       <c r="C165" s="9"/>
       <c r="D165" s="16"/>
       <c r="E165" s="10"/>
+      <c r="F165" s="19"/>
       <c r="G165" s="8"/>
-    </row>
-    <row r="166" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H165" s="4"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3047,9 +3577,13 @@
       <c r="C166" s="9"/>
       <c r="D166" s="16"/>
       <c r="E166" s="10"/>
+      <c r="F166" s="19"/>
       <c r="G166" s="8"/>
-    </row>
-    <row r="167" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H166" s="4"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3058,9 +3592,13 @@
       <c r="C167" s="9"/>
       <c r="D167" s="16"/>
       <c r="E167" s="10"/>
+      <c r="F167" s="19"/>
       <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H167" s="4"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3069,9 +3607,13 @@
       <c r="C168" s="9"/>
       <c r="D168" s="16"/>
       <c r="E168" s="10"/>
+      <c r="F168" s="19"/>
       <c r="G168" s="8"/>
-    </row>
-    <row r="169" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H168" s="4"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3080,9 +3622,13 @@
       <c r="C169" s="9"/>
       <c r="D169" s="16"/>
       <c r="E169" s="10"/>
+      <c r="F169" s="19"/>
       <c r="G169" s="8"/>
-    </row>
-    <row r="170" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H169" s="4"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3091,9 +3637,13 @@
       <c r="C170" s="9"/>
       <c r="D170" s="16"/>
       <c r="E170" s="10"/>
+      <c r="F170" s="19"/>
       <c r="G170" s="8"/>
-    </row>
-    <row r="171" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H170" s="4"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3102,9 +3652,13 @@
       <c r="C171" s="9"/>
       <c r="D171" s="16"/>
       <c r="E171" s="10"/>
+      <c r="F171" s="19"/>
       <c r="G171" s="8"/>
-    </row>
-    <row r="172" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H171" s="4"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3113,9 +3667,13 @@
       <c r="C172" s="9"/>
       <c r="D172" s="16"/>
       <c r="E172" s="10"/>
+      <c r="F172" s="19"/>
       <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H172" s="4"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3124,9 +3682,13 @@
       <c r="C173" s="9"/>
       <c r="D173" s="16"/>
       <c r="E173" s="10"/>
+      <c r="F173" s="19"/>
       <c r="G173" s="8"/>
-    </row>
-    <row r="174" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H173" s="4"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3135,9 +3697,13 @@
       <c r="C174" s="9"/>
       <c r="D174" s="16"/>
       <c r="E174" s="10"/>
+      <c r="F174" s="19"/>
       <c r="G174" s="8"/>
-    </row>
-    <row r="175" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H174" s="4"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3146,9 +3712,13 @@
       <c r="C175" s="9"/>
       <c r="D175" s="16"/>
       <c r="E175" s="10"/>
+      <c r="F175" s="19"/>
       <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H175" s="4"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3157,9 +3727,13 @@
       <c r="C176" s="9"/>
       <c r="D176" s="16"/>
       <c r="E176" s="10"/>
+      <c r="F176" s="19"/>
       <c r="G176" s="8"/>
-    </row>
-    <row r="177" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H176" s="4"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3168,9 +3742,13 @@
       <c r="C177" s="9"/>
       <c r="D177" s="16"/>
       <c r="E177" s="10"/>
+      <c r="F177" s="19"/>
       <c r="G177" s="8"/>
-    </row>
-    <row r="178" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H177" s="4"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3179,9 +3757,13 @@
       <c r="C178" s="9"/>
       <c r="D178" s="16"/>
       <c r="E178" s="10"/>
+      <c r="F178" s="19"/>
       <c r="G178" s="8"/>
-    </row>
-    <row r="179" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H178" s="4"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3190,9 +3772,13 @@
       <c r="C179" s="9"/>
       <c r="D179" s="16"/>
       <c r="E179" s="10"/>
+      <c r="F179" s="19"/>
       <c r="G179" s="8"/>
-    </row>
-    <row r="180" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H179" s="4"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3201,9 +3787,13 @@
       <c r="C180" s="9"/>
       <c r="D180" s="16"/>
       <c r="E180" s="10"/>
+      <c r="F180" s="19"/>
       <c r="G180" s="8"/>
-    </row>
-    <row r="181" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H180" s="4"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3212,9 +3802,13 @@
       <c r="C181" s="9"/>
       <c r="D181" s="16"/>
       <c r="E181" s="10"/>
+      <c r="F181" s="19"/>
       <c r="G181" s="8"/>
-    </row>
-    <row r="182" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H181" s="4"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3223,9 +3817,13 @@
       <c r="C182" s="9"/>
       <c r="D182" s="16"/>
       <c r="E182" s="10"/>
+      <c r="F182" s="19"/>
       <c r="G182" s="8"/>
-    </row>
-    <row r="183" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H182" s="4"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3234,9 +3832,13 @@
       <c r="C183" s="9"/>
       <c r="D183" s="16"/>
       <c r="E183" s="10"/>
+      <c r="F183" s="19"/>
       <c r="G183" s="8"/>
-    </row>
-    <row r="184" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H183" s="4"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3245,9 +3847,13 @@
       <c r="C184" s="9"/>
       <c r="D184" s="16"/>
       <c r="E184" s="10"/>
+      <c r="F184" s="19"/>
       <c r="G184" s="8"/>
-    </row>
-    <row r="185" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H184" s="4"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3256,9 +3862,13 @@
       <c r="C185" s="9"/>
       <c r="D185" s="16"/>
       <c r="E185" s="10"/>
+      <c r="F185" s="19"/>
       <c r="G185" s="8"/>
-    </row>
-    <row r="186" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H185" s="4"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3267,9 +3877,13 @@
       <c r="C186" s="9"/>
       <c r="D186" s="16"/>
       <c r="E186" s="10"/>
+      <c r="F186" s="19"/>
       <c r="G186" s="8"/>
-    </row>
-    <row r="187" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H186" s="4"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3278,9 +3892,13 @@
       <c r="C187" s="9"/>
       <c r="D187" s="16"/>
       <c r="E187" s="10"/>
+      <c r="F187" s="19"/>
       <c r="G187" s="8"/>
-    </row>
-    <row r="188" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H187" s="4"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3289,9 +3907,13 @@
       <c r="C188" s="9"/>
       <c r="D188" s="16"/>
       <c r="E188" s="10"/>
+      <c r="F188" s="19"/>
       <c r="G188" s="8"/>
-    </row>
-    <row r="189" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H188" s="4"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3300,9 +3922,13 @@
       <c r="C189" s="9"/>
       <c r="D189" s="16"/>
       <c r="E189" s="10"/>
+      <c r="F189" s="19"/>
       <c r="G189" s="8"/>
-    </row>
-    <row r="190" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H189" s="4"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3311,9 +3937,13 @@
       <c r="C190" s="9"/>
       <c r="D190" s="16"/>
       <c r="E190" s="10"/>
+      <c r="F190" s="19"/>
       <c r="G190" s="8"/>
-    </row>
-    <row r="191" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H190" s="4"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3322,9 +3952,13 @@
       <c r="C191" s="9"/>
       <c r="D191" s="16"/>
       <c r="E191" s="10"/>
+      <c r="F191" s="19"/>
       <c r="G191" s="8"/>
-    </row>
-    <row r="192" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H191" s="4"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3333,9 +3967,13 @@
       <c r="C192" s="9"/>
       <c r="D192" s="16"/>
       <c r="E192" s="10"/>
+      <c r="F192" s="19"/>
       <c r="G192" s="8"/>
-    </row>
-    <row r="193" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H192" s="4"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3344,9 +3982,13 @@
       <c r="C193" s="9"/>
       <c r="D193" s="16"/>
       <c r="E193" s="10"/>
+      <c r="F193" s="19"/>
       <c r="G193" s="8"/>
-    </row>
-    <row r="194" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H193" s="4"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3355,9 +3997,13 @@
       <c r="C194" s="9"/>
       <c r="D194" s="16"/>
       <c r="E194" s="10"/>
+      <c r="F194" s="19"/>
       <c r="G194" s="8"/>
-    </row>
-    <row r="195" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H194" s="4"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3366,9 +4012,13 @@
       <c r="C195" s="9"/>
       <c r="D195" s="16"/>
       <c r="E195" s="10"/>
+      <c r="F195" s="19"/>
       <c r="G195" s="8"/>
-    </row>
-    <row r="196" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H195" s="4"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3377,9 +4027,13 @@
       <c r="C196" s="9"/>
       <c r="D196" s="16"/>
       <c r="E196" s="10"/>
+      <c r="F196" s="19"/>
       <c r="G196" s="8"/>
-    </row>
-    <row r="197" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H196" s="4"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3388,9 +4042,13 @@
       <c r="C197" s="9"/>
       <c r="D197" s="16"/>
       <c r="E197" s="10"/>
+      <c r="F197" s="19"/>
       <c r="G197" s="8"/>
-    </row>
-    <row r="198" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H197" s="4"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3399,9 +4057,13 @@
       <c r="C198" s="9"/>
       <c r="D198" s="16"/>
       <c r="E198" s="10"/>
+      <c r="F198" s="19"/>
       <c r="G198" s="8"/>
-    </row>
-    <row r="199" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H198" s="4"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3410,9 +4072,13 @@
       <c r="C199" s="9"/>
       <c r="D199" s="16"/>
       <c r="E199" s="10"/>
+      <c r="F199" s="19"/>
       <c r="G199" s="8"/>
-    </row>
-    <row r="200" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H199" s="4"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3421,9 +4087,13 @@
       <c r="C200" s="9"/>
       <c r="D200" s="16"/>
       <c r="E200" s="10"/>
+      <c r="F200" s="19"/>
       <c r="G200" s="8"/>
-    </row>
-    <row r="201" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H200" s="4"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3432,9 +4102,13 @@
       <c r="C201" s="9"/>
       <c r="D201" s="16"/>
       <c r="E201" s="10"/>
+      <c r="F201" s="19"/>
       <c r="G201" s="8"/>
-    </row>
-    <row r="202" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H201" s="4"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3443,9 +4117,13 @@
       <c r="C202" s="9"/>
       <c r="D202" s="16"/>
       <c r="E202" s="10"/>
+      <c r="F202" s="19"/>
       <c r="G202" s="8"/>
-    </row>
-    <row r="203" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H202" s="4"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3454,9 +4132,13 @@
       <c r="C203" s="9"/>
       <c r="D203" s="16"/>
       <c r="E203" s="10"/>
+      <c r="F203" s="19"/>
       <c r="G203" s="8"/>
-    </row>
-    <row r="204" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H203" s="4"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3465,9 +4147,13 @@
       <c r="C204" s="9"/>
       <c r="D204" s="16"/>
       <c r="E204" s="10"/>
+      <c r="F204" s="19"/>
       <c r="G204" s="8"/>
-    </row>
-    <row r="205" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H204" s="4"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3476,9 +4162,13 @@
       <c r="C205" s="9"/>
       <c r="D205" s="16"/>
       <c r="E205" s="10"/>
+      <c r="F205" s="19"/>
       <c r="G205" s="8"/>
-    </row>
-    <row r="206" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H205" s="4"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3487,9 +4177,13 @@
       <c r="C206" s="9"/>
       <c r="D206" s="16"/>
       <c r="E206" s="10"/>
+      <c r="F206" s="19"/>
       <c r="G206" s="8"/>
-    </row>
-    <row r="207" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H206" s="4"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3498,9 +4192,13 @@
       <c r="C207" s="9"/>
       <c r="D207" s="16"/>
       <c r="E207" s="10"/>
+      <c r="F207" s="19"/>
       <c r="G207" s="8"/>
-    </row>
-    <row r="208" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H207" s="4"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3509,9 +4207,13 @@
       <c r="C208" s="9"/>
       <c r="D208" s="16"/>
       <c r="E208" s="10"/>
+      <c r="F208" s="19"/>
       <c r="G208" s="8"/>
-    </row>
-    <row r="209" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H208" s="4"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3520,9 +4222,13 @@
       <c r="C209" s="9"/>
       <c r="D209" s="16"/>
       <c r="E209" s="10"/>
+      <c r="F209" s="19"/>
       <c r="G209" s="8"/>
-    </row>
-    <row r="210" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H209" s="4"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3531,9 +4237,13 @@
       <c r="C210" s="9"/>
       <c r="D210" s="16"/>
       <c r="E210" s="10"/>
+      <c r="F210" s="19"/>
       <c r="G210" s="8"/>
-    </row>
-    <row r="211" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H210" s="4"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19">
         <f t="shared" ref="A211:A227" si="5">HYPERLINK(I211, H211)</f>
         <v>0</v>
@@ -3542,9 +4252,13 @@
       <c r="C211" s="9"/>
       <c r="D211" s="16"/>
       <c r="E211" s="10"/>
+      <c r="F211" s="19"/>
       <c r="G211" s="8"/>
-    </row>
-    <row r="212" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H211" s="4"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3553,9 +4267,13 @@
       <c r="C212" s="9"/>
       <c r="D212" s="16"/>
       <c r="E212" s="10"/>
+      <c r="F212" s="19"/>
       <c r="G212" s="8"/>
-    </row>
-    <row r="213" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H212" s="4"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3564,9 +4282,13 @@
       <c r="C213" s="9"/>
       <c r="D213" s="16"/>
       <c r="E213" s="10"/>
+      <c r="F213" s="19"/>
       <c r="G213" s="8"/>
-    </row>
-    <row r="214" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H213" s="4"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3575,9 +4297,13 @@
       <c r="C214" s="9"/>
       <c r="D214" s="16"/>
       <c r="E214" s="10"/>
+      <c r="F214" s="19"/>
       <c r="G214" s="8"/>
-    </row>
-    <row r="215" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H214" s="4"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3586,9 +4312,13 @@
       <c r="C215" s="9"/>
       <c r="D215" s="16"/>
       <c r="E215" s="10"/>
+      <c r="F215" s="19"/>
       <c r="G215" s="8"/>
-    </row>
-    <row r="216" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H215" s="4"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3597,9 +4327,13 @@
       <c r="C216" s="9"/>
       <c r="D216" s="16"/>
       <c r="E216" s="10"/>
+      <c r="F216" s="19"/>
       <c r="G216" s="8"/>
-    </row>
-    <row r="217" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H216" s="4"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3608,9 +4342,13 @@
       <c r="C217" s="9"/>
       <c r="D217" s="16"/>
       <c r="E217" s="10"/>
+      <c r="F217" s="19"/>
       <c r="G217" s="8"/>
-    </row>
-    <row r="218" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H217" s="4"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3619,9 +4357,13 @@
       <c r="C218" s="9"/>
       <c r="D218" s="16"/>
       <c r="E218" s="10"/>
+      <c r="F218" s="19"/>
       <c r="G218" s="8"/>
-    </row>
-    <row r="219" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H218" s="4"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3630,9 +4372,13 @@
       <c r="C219" s="9"/>
       <c r="D219" s="16"/>
       <c r="E219" s="10"/>
+      <c r="F219" s="19"/>
       <c r="G219" s="8"/>
-    </row>
-    <row r="220" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H219" s="4"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3641,9 +4387,13 @@
       <c r="C220" s="9"/>
       <c r="D220" s="16"/>
       <c r="E220" s="10"/>
+      <c r="F220" s="19"/>
       <c r="G220" s="8"/>
-    </row>
-    <row r="221" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H220" s="4"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3652,9 +4402,13 @@
       <c r="C221" s="9"/>
       <c r="D221" s="16"/>
       <c r="E221" s="10"/>
+      <c r="F221" s="19"/>
       <c r="G221" s="8"/>
-    </row>
-    <row r="222" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H221" s="4"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3663,9 +4417,13 @@
       <c r="C222" s="9"/>
       <c r="D222" s="16"/>
       <c r="E222" s="10"/>
+      <c r="F222" s="19"/>
       <c r="G222" s="8"/>
-    </row>
-    <row r="223" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H222" s="4"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3674,9 +4432,13 @@
       <c r="C223" s="9"/>
       <c r="D223" s="16"/>
       <c r="E223" s="10"/>
+      <c r="F223" s="19"/>
       <c r="G223" s="8"/>
-    </row>
-    <row r="224" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H223" s="4"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3685,9 +4447,13 @@
       <c r="C224" s="9"/>
       <c r="D224" s="16"/>
       <c r="E224" s="10"/>
+      <c r="F224" s="19"/>
       <c r="G224" s="8"/>
-    </row>
-    <row r="225" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H224" s="4"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3696,9 +4462,13 @@
       <c r="C225" s="9"/>
       <c r="D225" s="16"/>
       <c r="E225" s="10"/>
+      <c r="F225" s="19"/>
       <c r="G225" s="8"/>
-    </row>
-    <row r="226" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H225" s="4"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+    </row>
+    <row r="226" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3707,9 +4477,13 @@
       <c r="C226" s="9"/>
       <c r="D226" s="16"/>
       <c r="E226" s="10"/>
+      <c r="F226" s="19"/>
       <c r="G226" s="8"/>
-    </row>
-    <row r="227" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H226" s="4"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3718,121 +4492,1214 @@
       <c r="C227" s="9"/>
       <c r="D227" s="16"/>
       <c r="E227" s="10"/>
+      <c r="F227" s="19"/>
       <c r="G227" s="8"/>
-    </row>
-    <row r="228" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H227" s="4"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
+      <c r="B228" s="11"/>
       <c r="C228" s="12"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="13"/>
       <c r="F228" s="21"/>
-    </row>
-    <row r="229" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G228" s="11"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
+      <c r="B229" s="11"/>
       <c r="C229" s="12"/>
-    </row>
-    <row r="230" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D229" s="17"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
+      <c r="B230" s="11"/>
       <c r="C230" s="12"/>
-    </row>
-    <row r="231" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D230" s="17"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
+      <c r="B231" s="11"/>
       <c r="C231" s="12"/>
-    </row>
-    <row r="232" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="17"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
+      <c r="B232" s="11"/>
       <c r="C232" s="12"/>
-    </row>
-    <row r="233" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D232" s="17"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
+      <c r="B233" s="11"/>
       <c r="C233" s="12"/>
-    </row>
-    <row r="234" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D233" s="17"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="19"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
+      <c r="B234" s="11"/>
       <c r="C234" s="12"/>
-    </row>
-    <row r="235" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D234" s="17"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
+      <c r="B235" s="11"/>
       <c r="C235" s="12"/>
-    </row>
-    <row r="236" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D235" s="17"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
+      <c r="B236" s="11"/>
       <c r="C236" s="12"/>
-    </row>
-    <row r="237" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D236" s="17"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
+      <c r="B237" s="11"/>
       <c r="C237" s="12"/>
-    </row>
-    <row r="238" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D237" s="17"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="19"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
+      <c r="B238" s="11"/>
       <c r="C238" s="12"/>
-    </row>
-    <row r="239" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D238" s="17"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="12"/>
-    </row>
-    <row r="240" spans="1:7" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D239" s="17"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
+      <c r="B240" s="11"/>
       <c r="C240" s="12"/>
-    </row>
-    <row r="241" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D240" s="17"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="19"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
+      <c r="B241" s="11"/>
       <c r="C241" s="12"/>
-    </row>
-    <row r="242" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D241" s="17"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
+      <c r="B242" s="11"/>
       <c r="C242" s="12"/>
-    </row>
-    <row r="243" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D242" s="17"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="19"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+    </row>
+    <row r="243" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
+      <c r="B243" s="11"/>
       <c r="C243" s="12"/>
-    </row>
-    <row r="244" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D243" s="17"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
+      <c r="B244" s="11"/>
       <c r="C244" s="12"/>
-    </row>
-    <row r="245" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D244" s="17"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
+      <c r="B245" s="11"/>
       <c r="C245" s="12"/>
-    </row>
-    <row r="246" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D245" s="17"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="19"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+    </row>
+    <row r="246" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
+      <c r="B246" s="11"/>
       <c r="C246" s="12"/>
-    </row>
-    <row r="247" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D246" s="17"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
+      <c r="B247" s="11"/>
       <c r="C247" s="12"/>
-    </row>
-    <row r="248" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D247" s="17"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
+      <c r="B248" s="11"/>
       <c r="C248" s="12"/>
-    </row>
-    <row r="249" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D248" s="17"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+    </row>
+    <row r="249" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
+      <c r="B249" s="11"/>
       <c r="C249" s="12"/>
-    </row>
-    <row r="250" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D249" s="17"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
+      <c r="B250" s="11"/>
       <c r="C250" s="12"/>
-    </row>
-    <row r="251" spans="1:3" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D250" s="17"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="1:10" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
+      <c r="B251" s="11"/>
       <c r="C251" s="12"/>
-    </row>
-    <row r="252" spans="1:3" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D251" s="17"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="1:10" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
+      <c r="B252" s="11"/>
       <c r="C252" s="12"/>
-    </row>
-    <row r="253" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D252" s="17"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="1:10" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
+      <c r="B253" s="11"/>
       <c r="C253" s="14"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="19">
+        <f t="shared" ref="A254:A317" si="6">HYPERLINK(I254, H254)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="19">
+        <f t="shared" ref="A318:A381" si="7">HYPERLINK(I318, H318)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="19">
+        <f t="shared" ref="A382:A401" si="8">HYPERLINK(I382, H382)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P253" xr:uid="{C9CA4026-E2FF-4643-851D-55602EE429F1}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Purolator"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P253" xr:uid="{C9CA4026-E2FF-4643-851D-55602EE429F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K253">
     <sortCondition ref="D1"/>
   </sortState>
@@ -3877,7 +5744,7 @@
   <dimension ref="A1:K253"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3934,58 +5801,45 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="str">
+      <c r="A2" s="19">
         <f t="shared" ref="A2:A5" si="0">HYPERLINK(I2, H2)</f>
-        <v>7183382-00</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="10">
-        <v>44246.518670787038</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="18"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>7183457-00</v>
+        <v>7183379-00</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E3" s="10">
-        <v>44246.518672488426</v>
+        <v>44253.488292499998</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="8"/>
       <c r="H3" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>18</v>
@@ -3994,61 +5848,87 @@
     <row r="4" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>7183439-00</v>
+        <v>7183441-00</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10">
-        <v>44246.518671516205</v>
+        <v>44253.488293750001</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="8"/>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>7183404-00</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44253.488292986112</v>
+      </c>
       <c r="G5" s="8"/>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="19" t="str">
         <f t="shared" ref="A6:A18" si="1">HYPERLINK(I6, H6)</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>7183409-00</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44253.488293252318</v>
+      </c>
       <c r="G6" s="8"/>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
@@ -4056,12 +5936,8 @@
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="10"/>
       <c r="G7" s="8"/>
     </row>
@@ -4071,12 +5947,8 @@
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="10"/>
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
@@ -4087,12 +5959,8 @@
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="10"/>
       <c r="F9" s="18"/>
       <c r="G9" s="8"/>
@@ -4103,12 +5971,8 @@
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="10"/>
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
@@ -4119,12 +5983,8 @@
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>
@@ -6662,7 +8522,7 @@
   <dimension ref="A1:P253"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6719,38 +8579,20 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="str">
+      <c r="A2" s="19">
         <f t="shared" ref="A2:A6" si="0">HYPERLINK(I2, H2)</f>
-        <v>7183409-00_reprint</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="10">
-        <v>44249.574440578705</v>
-      </c>
-      <c r="F2" s="18" t="str">
-        <f>HYPERLINK("C:\Users\0235124\OneDrive - University of Waterloo\Desktop\signodeProjects\pdfParse\pyPDF2\python_code\STABLE CODE\test\master_pick_tickets\7183409-00.pdf", "7183409-00")</f>
-        <v>7183409-00</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -6759,10 +8601,10 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="18"/>
@@ -6778,10 +8620,10 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" s="8"/>
@@ -6796,10 +8638,10 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" s="8"/>
@@ -6813,12 +8655,8 @@
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="10"/>
       <c r="G6" s="8"/>
     </row>
@@ -6828,12 +8666,8 @@
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="10"/>
       <c r="G7" s="8"/>
     </row>
@@ -6843,12 +8677,8 @@
         <v>0</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="10"/>
       <c r="F8" s="18"/>
       <c r="G8" s="8"/>
@@ -6859,12 +8689,8 @@
         <v>0</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="10"/>
       <c r="G9" s="8"/>
     </row>
@@ -6874,12 +8700,8 @@
         <v>0</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="10"/>
       <c r="G10" s="8"/>
     </row>
@@ -6889,12 +8711,8 @@
         <v>0</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="10"/>
       <c r="G11" s="8"/>
     </row>
